--- a/documentation/miscellaneous/for Import/WeekdayReadings.xlsx
+++ b/documentation/miscellaneous/for Import/WeekdayReadings.xlsx
@@ -5,19 +5,29 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer2\Documents\Not Mine - KIMMY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SOFTDEV_IT111(GRP 5)\apc-softdev-it111-05\documentation\miscellaneous\for Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Original - Cycle 1" sheetId="1" r:id="rId1"/>
     <sheet name="Modified - Cycle 1" sheetId="2" r:id="rId2"/>
     <sheet name="Original - Cycle 2" sheetId="3" r:id="rId3"/>
     <sheet name="Modified - Cycle 2" sheetId="4" r:id="rId4"/>
+    <sheet name="Original - Advent " sheetId="5" r:id="rId5"/>
+    <sheet name="Modified - Advent" sheetId="6" r:id="rId6"/>
+    <sheet name="Original - Lent" sheetId="7" r:id="rId7"/>
+    <sheet name="Modified - Lent" sheetId="8" r:id="rId8"/>
+    <sheet name="Original - Easter" sheetId="9" r:id="rId9"/>
+    <sheet name="Modified - Easter" sheetId="10" r:id="rId10"/>
   </sheets>
+  <definedNames>
+    <definedName name="Chrism" localSheetId="6">'Original - Lent'!$A$45</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4237" uniqueCount="1284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5384" uniqueCount="1728">
   <si>
     <t>[30:St. Andrew]</t>
   </si>
@@ -3979,12 +3989,1476 @@
   <si>
     <t>Ps 95:1-2, 3-5, 6-7ab</t>
   </si>
+  <si>
+    <t>Lect. #</t>
+  </si>
+  <si>
+    <t>First Reading</t>
+  </si>
+  <si>
+    <t>Alleluia Verse</t>
+  </si>
+  <si>
+    <t>Gospel</t>
+  </si>
+  <si>
+    <t>1st Week of Advent – Mon</t>
+  </si>
+  <si>
+    <r>
+      <t>Isa 2:1-5 (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>, in Year A, Isa 4:2-6)</t>
+    </r>
+  </si>
+  <si>
+    <t>Ps 122:1-2, 3-4b, 4cd-5, 6-7, 8-9</t>
+  </si>
+  <si>
+    <t>See Ps 80:4</t>
+  </si>
+  <si>
+    <t>Matt 8:5-11</t>
+  </si>
+  <si>
+    <t>1st Week of Advent – Tues</t>
+  </si>
+  <si>
+    <t>Isa 11:1-10</t>
+  </si>
+  <si>
+    <t>Ps 72:1-2, 7-8, 12-13, 17</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>no bibl. ref.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>Luke 10:21-24</t>
+  </si>
+  <si>
+    <t>1st Week of Advent – Wed</t>
+  </si>
+  <si>
+    <t>Isa 25:6-10a</t>
+  </si>
+  <si>
+    <t>Matt 15:29-37</t>
+  </si>
+  <si>
+    <t>1st Week of Advent – Thurs</t>
+  </si>
+  <si>
+    <t>Isa 26:1-6</t>
+  </si>
+  <si>
+    <t>Ps 118:1+8-9, 19-21, 25-27a</t>
+  </si>
+  <si>
+    <t>Isa 55:6</t>
+  </si>
+  <si>
+    <t>Matt 7:21, 24-27</t>
+  </si>
+  <si>
+    <t>1st Week of Advent – Fri</t>
+  </si>
+  <si>
+    <t>Isa 29:17-24</t>
+  </si>
+  <si>
+    <t>Matt 9:27-31</t>
+  </si>
+  <si>
+    <t>1st Week of Advent – Sat</t>
+  </si>
+  <si>
+    <t>Isa 30:19-21, 23-26</t>
+  </si>
+  <si>
+    <t>Ps 147:1-2, 3-4, 5-6</t>
+  </si>
+  <si>
+    <t>Isa 33:22</t>
+  </si>
+  <si>
+    <t>Matt 9:35—10:1, 5a, 6-8</t>
+  </si>
+  <si>
+    <t>2nd Week of Advent – Mon</t>
+  </si>
+  <si>
+    <t>Isa 35:1-10</t>
+  </si>
+  <si>
+    <t>Luke 5:17-26</t>
+  </si>
+  <si>
+    <t>2nd Week of Advent – Tues</t>
+  </si>
+  <si>
+    <t>Isa 40:1-11</t>
+  </si>
+  <si>
+    <t>Ps 96:1-2, 3+10ac, 11-12, 13</t>
+  </si>
+  <si>
+    <t>Matt 18:12-14</t>
+  </si>
+  <si>
+    <t>2nd Week of Advent – Wed</t>
+  </si>
+  <si>
+    <t>Isa 40:25-31</t>
+  </si>
+  <si>
+    <t>Ps 103:1-2, 3-4, 8+10</t>
+  </si>
+  <si>
+    <t>2nd Week of Advent – Thurs</t>
+  </si>
+  <si>
+    <t>Isa 41:13-20</t>
+  </si>
+  <si>
+    <t>Ps 145:1+9, 10-11, 12-13ab</t>
+  </si>
+  <si>
+    <t>See Isa 45:8</t>
+  </si>
+  <si>
+    <t>Matt 11:11-15</t>
+  </si>
+  <si>
+    <t>2nd Week of Advent – Fri</t>
+  </si>
+  <si>
+    <t>Isa 48:17-19</t>
+  </si>
+  <si>
+    <t>Matt 11:16-19</t>
+  </si>
+  <si>
+    <t>2nd Week of Advent – Sat</t>
+  </si>
+  <si>
+    <t>Sir 48:1-4, 9-11</t>
+  </si>
+  <si>
+    <t>Ps 80:2ac+3b, 15-16, 18-19</t>
+  </si>
+  <si>
+    <t>Luke 3:4+6</t>
+  </si>
+  <si>
+    <t>Matt 17:9a, 10-13</t>
+  </si>
+  <si>
+    <t>187*</t>
+  </si>
+  <si>
+    <t>3rd Week of Advent – Mon</t>
+  </si>
+  <si>
+    <t>Num 24:2-7, 15-17a</t>
+  </si>
+  <si>
+    <t>Ps 25:4-5ab, 6+7bc, 8-9</t>
+  </si>
+  <si>
+    <t>Ps 85:8</t>
+  </si>
+  <si>
+    <t>Matt 21:23-27</t>
+  </si>
+  <si>
+    <t>188*</t>
+  </si>
+  <si>
+    <t>3rd Week of Advent – Tues</t>
+  </si>
+  <si>
+    <t>Zeph 3:1-2, 9-13</t>
+  </si>
+  <si>
+    <t>Ps 34:2-3, 6-7, 17-18, 19+23</t>
+  </si>
+  <si>
+    <t>Matt 21:28-32</t>
+  </si>
+  <si>
+    <t>189*</t>
+  </si>
+  <si>
+    <t>3rd Week of Advent – Wed</t>
+  </si>
+  <si>
+    <t>Isa 45:6c-8, 18, 21c-25</t>
+  </si>
+  <si>
+    <t>See Isa 40:9-10</t>
+  </si>
+  <si>
+    <t>Luke 7:18b-23</t>
+  </si>
+  <si>
+    <t>190*</t>
+  </si>
+  <si>
+    <t>3rd Week of Advent – Thurs</t>
+  </si>
+  <si>
+    <t>Isa 54:1-10</t>
+  </si>
+  <si>
+    <t>Ps 30:2+4, 5-6, 11-12a+13b</t>
+  </si>
+  <si>
+    <t>Luke 7:24-30</t>
+  </si>
+  <si>
+    <t>191*</t>
+  </si>
+  <si>
+    <t>3rd Week of Advent – Fri</t>
+  </si>
+  <si>
+    <t>Isa 56:1-3a, 6-8</t>
+  </si>
+  <si>
+    <t>John 5:33-36</t>
+  </si>
+  <si>
+    <t>193**</t>
+  </si>
+  <si>
+    <t>Gen 49:2, 8-10</t>
+  </si>
+  <si>
+    <t>Ps 72:1-2, 3-4ab, 7-8, 17</t>
+  </si>
+  <si>
+    <t>[O Antiphons]</t>
+  </si>
+  <si>
+    <t>Matt 1:1-17</t>
+  </si>
+  <si>
+    <t>Jer 23:5-8</t>
+  </si>
+  <si>
+    <t>Ps 72:1-2, 12-13, 18-19</t>
+  </si>
+  <si>
+    <t>Matt 1:18-24</t>
+  </si>
+  <si>
+    <t>Judg 13:2-7, 24-25a</t>
+  </si>
+  <si>
+    <t>Ps 71:3-4a, 5-6ab, 16-17</t>
+  </si>
+  <si>
+    <t>Luke 1:5-25</t>
+  </si>
+  <si>
+    <t>Isa 7:10-14</t>
+  </si>
+  <si>
+    <t>Luke 1:26-38</t>
+  </si>
+  <si>
+    <t>Cant 2:8-14 or Zeph 3:14-18a</t>
+  </si>
+  <si>
+    <t>Ps 33:2-3, 11-12, 20-21</t>
+  </si>
+  <si>
+    <t>Luke 1:39-45</t>
+  </si>
+  <si>
+    <t>1 Sam 1:24-28</t>
+  </si>
+  <si>
+    <t>Luke 1:46-56</t>
+  </si>
+  <si>
+    <t>Mal 3:1-4, 23-24</t>
+  </si>
+  <si>
+    <t>Luke 1:57-66</t>
+  </si>
+  <si>
+    <t>Dec. 24 (morning Mass)</t>
+  </si>
+  <si>
+    <t>2 Sam 7:1-5, 8b-12, 14a, 16</t>
+  </si>
+  <si>
+    <t>Ps 89:2-3, 4-5, 27+29</t>
+  </si>
+  <si>
+    <t>Luke 1:67-79</t>
+  </si>
+  <si>
+    <t>219*</t>
+  </si>
+  <si>
+    <t>Ash Wednesday</t>
+  </si>
+  <si>
+    <t>Joel 2:12-18</t>
+  </si>
+  <si>
+    <r>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t> 2 Cor 5:20—6:2</t>
+    </r>
+  </si>
+  <si>
+    <t>Ps 51:3-4, 5-6ab, 12-13, 14+17</t>
+  </si>
+  <si>
+    <t>See Ps 95:8</t>
+  </si>
+  <si>
+    <t>Thursday after Ash Wed.</t>
+  </si>
+  <si>
+    <t>Deut 30:15-20</t>
+  </si>
+  <si>
+    <t>Matt 4:17</t>
+  </si>
+  <si>
+    <t>Luke 9:22-25</t>
+  </si>
+  <si>
+    <t>Friday after Ash Wed.</t>
+  </si>
+  <si>
+    <t>Isa 58:1-9a</t>
+  </si>
+  <si>
+    <t>Ps 51:3-4, 5-6ab, 18-19</t>
+  </si>
+  <si>
+    <t>See Amos 5:14</t>
+  </si>
+  <si>
+    <t>Matt 9:14-15</t>
+  </si>
+  <si>
+    <t>222*</t>
+  </si>
+  <si>
+    <t>Saturday after Ash Wed.</t>
+  </si>
+  <si>
+    <t>Isa 58:9b-14</t>
+  </si>
+  <si>
+    <t>Luke 5:27-32</t>
+  </si>
+  <si>
+    <t>1st Week of Lent – Mon</t>
+  </si>
+  <si>
+    <t>Lev 19:1-2, 11-18</t>
+  </si>
+  <si>
+    <t>Ps 19:8, 9, 10, 15</t>
+  </si>
+  <si>
+    <t>2 Cor 6:2b</t>
+  </si>
+  <si>
+    <t>Matt 25:31-46</t>
+  </si>
+  <si>
+    <t>1st Week of Lent – Tues</t>
+  </si>
+  <si>
+    <t>Isa 55:10-11</t>
+  </si>
+  <si>
+    <t>Ps 34:4-5, 6-7, 16-17, 18-19</t>
+  </si>
+  <si>
+    <t>1st Week of Lent – Wed</t>
+  </si>
+  <si>
+    <t>Ps 51:3-4, 12-13, 18-19</t>
+  </si>
+  <si>
+    <t>Joel 2:12-13</t>
+  </si>
+  <si>
+    <t>1st Week of Lent – Thurs</t>
+  </si>
+  <si>
+    <t>Esth C:12, 14-16, 23-25</t>
+  </si>
+  <si>
+    <t>Ps 138:1-2ab, 2cde-3, 7c-8</t>
+  </si>
+  <si>
+    <t>Ps 51:12a+14a</t>
+  </si>
+  <si>
+    <t>Matt 7:7-12</t>
+  </si>
+  <si>
+    <t>1st Week of Lent – Fri</t>
+  </si>
+  <si>
+    <t>Ezek 18:21-28</t>
+  </si>
+  <si>
+    <t>Ps 130:1-2, 3-4, 5-7a, 7bc-8</t>
+  </si>
+  <si>
+    <t>Ezek 18:31</t>
+  </si>
+  <si>
+    <t>1st Week of Lent – Sat</t>
+  </si>
+  <si>
+    <t>Deut 26:16-19</t>
+  </si>
+  <si>
+    <t>Ps 119:1-2, 4-5, 7-8</t>
+  </si>
+  <si>
+    <t>2nd Week of Lent – Mon</t>
+  </si>
+  <si>
+    <t>Dan 9:4b-10</t>
+  </si>
+  <si>
+    <t>Ps 78:8, 9, 11+13</t>
+  </si>
+  <si>
+    <t>See John 6:63c+68c</t>
+  </si>
+  <si>
+    <t>Luke 6:36-38</t>
+  </si>
+  <si>
+    <t>2nd Week of Lent – Tues</t>
+  </si>
+  <si>
+    <t>Isa 1:10, 16-20</t>
+  </si>
+  <si>
+    <t>2nd Week of Lent – Wed</t>
+  </si>
+  <si>
+    <t>Jer 18:18-20</t>
+  </si>
+  <si>
+    <t>Ps 31:5-6, 14, 15-16</t>
+  </si>
+  <si>
+    <t>Matt 20:17-28</t>
+  </si>
+  <si>
+    <t>2nd Week of Lent – Thurs</t>
+  </si>
+  <si>
+    <t>Jer 17:5-10</t>
+  </si>
+  <si>
+    <t>Luke 16:19-31</t>
+  </si>
+  <si>
+    <t>2nd Week of Lent – Fri</t>
+  </si>
+  <si>
+    <t>Gen 37:3-4, 12-13a, 17b-28a</t>
+  </si>
+  <si>
+    <t>Matt 21:33-43, 45-46</t>
+  </si>
+  <si>
+    <t>2nd Week of Lent – Sat</t>
+  </si>
+  <si>
+    <t>Luke 15:18</t>
+  </si>
+  <si>
+    <t>Luke 15:1-3, 11-32</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>236*</t>
+  </si>
+  <si>
+    <t>3rd Week of Lent – optional Mass</t>
+  </si>
+  <si>
+    <t>Exod 17:1-7</t>
+  </si>
+  <si>
+    <t>Ps 95:1-2, 6-7ab, 7c-9</t>
+  </si>
+  <si>
+    <t>See John 4:42, 15</t>
+  </si>
+  <si>
+    <t>John 4:5-42</t>
+  </si>
+  <si>
+    <t>3rd Week of Lent – Mon</t>
+  </si>
+  <si>
+    <t>2 Kgs 5:1-15a</t>
+  </si>
+  <si>
+    <t>Ps 42:2, 3; 43:3, 4</t>
+  </si>
+  <si>
+    <t>See Ps 130:5+7</t>
+  </si>
+  <si>
+    <t>Luke 4:24-30</t>
+  </si>
+  <si>
+    <t>3rd Week of Lent – Tues</t>
+  </si>
+  <si>
+    <t>Dan 3:25, 34-43</t>
+  </si>
+  <si>
+    <t>Matt 18:21-35</t>
+  </si>
+  <si>
+    <t>3rd Week of Lent – Wed</t>
+  </si>
+  <si>
+    <t>Deut 4:1, 5-9</t>
+  </si>
+  <si>
+    <t>Ps 147:12-13, 15-16, 19-20</t>
+  </si>
+  <si>
+    <t>3rd Week of Lent – Thurs</t>
+  </si>
+  <si>
+    <t>Jer 7:23-28</t>
+  </si>
+  <si>
+    <t>Luke 11:14-23</t>
+  </si>
+  <si>
+    <t>3rd Week of Lent – Fri</t>
+  </si>
+  <si>
+    <t>Ps 81:6c-8a, 8bc-9, 10-11ab, 14+17</t>
+  </si>
+  <si>
+    <t>3rd Week of Lent – Sat</t>
+  </si>
+  <si>
+    <t>Hos 6:1-6</t>
+  </si>
+  <si>
+    <t>Ps 51:3-4, 18-19, 20-21ab</t>
+  </si>
+  <si>
+    <t>Luke 18:9-14</t>
+  </si>
+  <si>
+    <t>243*</t>
+  </si>
+  <si>
+    <t>4th Week of Lent – optional Mass</t>
+  </si>
+  <si>
+    <t>Mic 7:7-9</t>
+  </si>
+  <si>
+    <t>Ps 26:1, 7-8a, 8b-9abc, 13-14</t>
+  </si>
+  <si>
+    <t>John 9:1-41</t>
+  </si>
+  <si>
+    <t>*note</t>
+  </si>
+  <si>
+    <t>4th Week of Lent – Mon</t>
+  </si>
+  <si>
+    <t>Isa 65:17-21</t>
+  </si>
+  <si>
+    <t>Amos 5:14</t>
+  </si>
+  <si>
+    <t>John 4:43-54</t>
+  </si>
+  <si>
+    <t>4th Week of Lent – Tues</t>
+  </si>
+  <si>
+    <t>Ezek 47:1-9, 12</t>
+  </si>
+  <si>
+    <t>Ps 46:2-3, 5-6, 8-9</t>
+  </si>
+  <si>
+    <t>John 5:1-3a, 5-16</t>
+  </si>
+  <si>
+    <t>4th Week of Lent – Wed</t>
+  </si>
+  <si>
+    <t>Isa 49:8-15</t>
+  </si>
+  <si>
+    <t>Ps 145:8-9, 13cd-14, 17-18</t>
+  </si>
+  <si>
+    <t>John 11:25a+26</t>
+  </si>
+  <si>
+    <t>John 5:17-30</t>
+  </si>
+  <si>
+    <t>4th Week of Lent – Thurs</t>
+  </si>
+  <si>
+    <t>Exod 32:7-14</t>
+  </si>
+  <si>
+    <t>John 5:31-47</t>
+  </si>
+  <si>
+    <t>4th Week of Lent – Fri</t>
+  </si>
+  <si>
+    <t>Wis 2:1a, 12-22</t>
+  </si>
+  <si>
+    <t>Ps 34:17-18, 19-20, 21+23</t>
+  </si>
+  <si>
+    <t>John 7:1-2, 10, 25-30</t>
+  </si>
+  <si>
+    <t>4th Week of Lent – Sat</t>
+  </si>
+  <si>
+    <t>Jer 11:18-20</t>
+  </si>
+  <si>
+    <t>Ps 7:2-3, 9bc-10, 11-12</t>
+  </si>
+  <si>
+    <t>John 7:40-53</t>
+  </si>
+  <si>
+    <t>250*</t>
+  </si>
+  <si>
+    <t>5th Week of Lent – optional Mass</t>
+  </si>
+  <si>
+    <t>2 Kgs 4:18b-21, 32-37</t>
+  </si>
+  <si>
+    <t>Ps 17:1, 6-7, 8b+15</t>
+  </si>
+  <si>
+    <t>John 11:1-45</t>
+  </si>
+  <si>
+    <t>5th Week of Lent – Mon</t>
+  </si>
+  <si>
+    <t>Dan 13:1-9, 15-17, 19-30, 33-62</t>
+  </si>
+  <si>
+    <r>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t> 13:41c-62</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>John 8:1-11 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7.5"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+  </si>
+  <si>
+    <t>in Year C, John 8:12-20</t>
+  </si>
+  <si>
+    <t>5th Week of Lent – Tues</t>
+  </si>
+  <si>
+    <t>Num 21:4-9</t>
+  </si>
+  <si>
+    <t>Ps 102:2-3, 16-18, 19-21</t>
+  </si>
+  <si>
+    <t>[no bibl. ref.]</t>
+  </si>
+  <si>
+    <t>John 8:21-30</t>
+  </si>
+  <si>
+    <t>5th Week of Lent – Wed</t>
+  </si>
+  <si>
+    <t>Dan 3:14-20, 91-92, 95</t>
+  </si>
+  <si>
+    <t>John 8:31-42</t>
+  </si>
+  <si>
+    <t>5th Week of Lent – Thurs</t>
+  </si>
+  <si>
+    <t>Gen 17:3-9</t>
+  </si>
+  <si>
+    <t>Ps 105:4-5, 6-7, 8-9</t>
+  </si>
+  <si>
+    <t>John 8:51-59</t>
+  </si>
+  <si>
+    <t>5th Week of Lent – Fri</t>
+  </si>
+  <si>
+    <t>Jer 20:10-13</t>
+  </si>
+  <si>
+    <t>Ps 18:2-3a, 3bc-4, 5-6, 7</t>
+  </si>
+  <si>
+    <t>John 10:31-42</t>
+  </si>
+  <si>
+    <t>5th Week of Lent – Sat</t>
+  </si>
+  <si>
+    <t>Ezek 37:21-28</t>
+  </si>
+  <si>
+    <t>John 11:45-56</t>
+  </si>
+  <si>
+    <t>Holy Week – Mon</t>
+  </si>
+  <si>
+    <t>Isa 42:1-7</t>
+  </si>
+  <si>
+    <t>Ps 27:1, 2, 3, 13-14</t>
+  </si>
+  <si>
+    <t>John 12:1-11</t>
+  </si>
+  <si>
+    <t>Holy Week – Tues</t>
+  </si>
+  <si>
+    <t>Isa 49:1-6</t>
+  </si>
+  <si>
+    <t>John 13:21-33, 36-38</t>
+  </si>
+  <si>
+    <t>Holy Week – Wed</t>
+  </si>
+  <si>
+    <t>Isa 50:4-9a</t>
+  </si>
+  <si>
+    <t>Ps 69:8-10, 21-22, 31+33-34</t>
+  </si>
+  <si>
+    <t>Matt 26:14-25</t>
+  </si>
+  <si>
+    <r>
+      <t>Holy Week – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>Chrism Mass</t>
+    </r>
+  </si>
+  <si>
+    <t>Isa 61:1-3a, 6a, 8b-9 </t>
+  </si>
+  <si>
+    <r>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t> Rev 1:5-8</t>
+    </r>
+  </si>
+  <si>
+    <t>Ps 89:21-22, 25+27</t>
+  </si>
+  <si>
+    <t>Isa 61:1 (cited in Luke 4:18)</t>
+  </si>
+  <si>
+    <t>Luke 4:16-21</t>
+  </si>
+  <si>
+    <t>Octave of Easter - Mon</t>
+  </si>
+  <si>
+    <t>Acts 2:14, 22-33</t>
+  </si>
+  <si>
+    <t>Ps 16:1-2a+5, 7-8, 9-10, 11</t>
+  </si>
+  <si>
+    <t>Ps 118:24</t>
+  </si>
+  <si>
+    <t>Matt 28:8-15</t>
+  </si>
+  <si>
+    <t>Octave of Easter - Tues</t>
+  </si>
+  <si>
+    <t>Acts 2:36-41</t>
+  </si>
+  <si>
+    <t>Ps 33:4-5, 18-19, 20+22</t>
+  </si>
+  <si>
+    <t>John 20:11-18</t>
+  </si>
+  <si>
+    <t>Octave of Easter - Wed</t>
+  </si>
+  <si>
+    <t>Acts 3:1-10</t>
+  </si>
+  <si>
+    <t>Luke 24:13-35</t>
+  </si>
+  <si>
+    <t>Octave of Easter - Thurs</t>
+  </si>
+  <si>
+    <t>Acts 3:11-26</t>
+  </si>
+  <si>
+    <t>Luke 24:35-48</t>
+  </si>
+  <si>
+    <t>Octave of Easter - Fri</t>
+  </si>
+  <si>
+    <t>Acts 4:1-12</t>
+  </si>
+  <si>
+    <t>Ps 118:1-2+4, 22-24, 25-27a</t>
+  </si>
+  <si>
+    <t>John 21:1-14</t>
+  </si>
+  <si>
+    <t>Octave of Easter - Sat</t>
+  </si>
+  <si>
+    <t>Acts 4:13-21</t>
+  </si>
+  <si>
+    <t>Ps 118:1+14-15ab, 16-18, 19-21</t>
+  </si>
+  <si>
+    <t>Mark 16:9-15</t>
+  </si>
+  <si>
+    <t>2nd Week of Easter - Mon</t>
+  </si>
+  <si>
+    <t>Acts 4:23-31</t>
+  </si>
+  <si>
+    <t>Ps 2:1-3, 4-7a, 7b-9</t>
+  </si>
+  <si>
+    <t>Col 3:1</t>
+  </si>
+  <si>
+    <t>John 3:1-8</t>
+  </si>
+  <si>
+    <t>2nd Week of Easter - Tues</t>
+  </si>
+  <si>
+    <t>Acts 4:32-37</t>
+  </si>
+  <si>
+    <t>John 3:14-15</t>
+  </si>
+  <si>
+    <t>John 3:7b-15</t>
+  </si>
+  <si>
+    <t>2nd Week of Easter - Wed</t>
+  </si>
+  <si>
+    <t>Acts 5:17-26</t>
+  </si>
+  <si>
+    <t>John 3:16-21</t>
+  </si>
+  <si>
+    <t>2nd Week of Easter - Thurs</t>
+  </si>
+  <si>
+    <t>Acts 5:27-33</t>
+  </si>
+  <si>
+    <t>Ps 34:2+9, 17-18, 19-20</t>
+  </si>
+  <si>
+    <t>John 20:29</t>
+  </si>
+  <si>
+    <t>John 3:31-36</t>
+  </si>
+  <si>
+    <t>2nd Week of Easter - Fri</t>
+  </si>
+  <si>
+    <t>Acts 5:34-42</t>
+  </si>
+  <si>
+    <t>John 6:1-15</t>
+  </si>
+  <si>
+    <t>2nd Week of Easter - Sat</t>
+  </si>
+  <si>
+    <t>Acts 6:1-7</t>
+  </si>
+  <si>
+    <t>Ps 33:1-2, 4-5, 18-19</t>
+  </si>
+  <si>
+    <t>John 6:16-21</t>
+  </si>
+  <si>
+    <t>3rd Week of Easter - Mon</t>
+  </si>
+  <si>
+    <t>Acts 6:8-15</t>
+  </si>
+  <si>
+    <t>Ps 119:23-24, 26-27, 29-30</t>
+  </si>
+  <si>
+    <t>John 6:22-29</t>
+  </si>
+  <si>
+    <t>3rd Week of Easter - Tues</t>
+  </si>
+  <si>
+    <t>Acts 7:51—8:1a</t>
+  </si>
+  <si>
+    <t>Ps 31:3cd-4, 6+7b+8a, 17+21ab</t>
+  </si>
+  <si>
+    <t>John 6:35ab</t>
+  </si>
+  <si>
+    <t>John 6:30-35</t>
+  </si>
+  <si>
+    <t>3rd Week of Easter - Wed</t>
+  </si>
+  <si>
+    <t>Acts 8:1b-8</t>
+  </si>
+  <si>
+    <t>Ps 66:1-3a, 4-5, 6-7a</t>
+  </si>
+  <si>
+    <t>See John 6:40</t>
+  </si>
+  <si>
+    <t>John 6:35-40</t>
+  </si>
+  <si>
+    <t>3rd Week of Easter - Thurs</t>
+  </si>
+  <si>
+    <t>Acts 8:26-40</t>
+  </si>
+  <si>
+    <t>Ps 66:8-9, 16-17, 20</t>
+  </si>
+  <si>
+    <t>John 6:51</t>
+  </si>
+  <si>
+    <t>John 6:44-51</t>
+  </si>
+  <si>
+    <t>3rd Week of Easter - Fri</t>
+  </si>
+  <si>
+    <t>Acts 9:1-20</t>
+  </si>
+  <si>
+    <t>Ps 117:1, 2</t>
+  </si>
+  <si>
+    <t>John 6:56</t>
+  </si>
+  <si>
+    <t>John 6:52-59</t>
+  </si>
+  <si>
+    <t>3rd Week of Easter - Sat</t>
+  </si>
+  <si>
+    <t>Acts 9:31-42</t>
+  </si>
+  <si>
+    <t>Ps 116:12-13, 14-15, 16-17</t>
+  </si>
+  <si>
+    <t>John 6:60-69</t>
+  </si>
+  <si>
+    <t>4th Week of Easter - Mon</t>
+  </si>
+  <si>
+    <t>Acts 11:1-18</t>
+  </si>
+  <si>
+    <t>Ps 42:2-3; 42:3, 4</t>
+  </si>
+  <si>
+    <r>
+      <t>John 10:1-10 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7.5"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+  </si>
+  <si>
+    <t>in Year A, John 10:11-18</t>
+  </si>
+  <si>
+    <t>4th Week of Easter - Tues</t>
+  </si>
+  <si>
+    <t>Acts 11:19-26</t>
+  </si>
+  <si>
+    <t>John 10:22-30</t>
+  </si>
+  <si>
+    <t>4th Week of Easter - Wed</t>
+  </si>
+  <si>
+    <t>Acts 12:24—13:5a</t>
+  </si>
+  <si>
+    <t>Ps 67:2-3, 5, 6+8</t>
+  </si>
+  <si>
+    <t>John 12:44-50</t>
+  </si>
+  <si>
+    <t>4th Week of Easter - Thurs</t>
+  </si>
+  <si>
+    <t>Acts 13:13-25</t>
+  </si>
+  <si>
+    <t>Ps 89:2-3, 21-22, 25+27</t>
+  </si>
+  <si>
+    <t>John 13:16-20</t>
+  </si>
+  <si>
+    <t>4th Week of Easter - Fri</t>
+  </si>
+  <si>
+    <t>Acts 13:26-33</t>
+  </si>
+  <si>
+    <t>Ps 2:6-7, 8-9, 10-11ab</t>
+  </si>
+  <si>
+    <t>John 14:1-6</t>
+  </si>
+  <si>
+    <t>4th Week of Easter - Sat</t>
+  </si>
+  <si>
+    <t>Acts 13:44-52</t>
+  </si>
+  <si>
+    <t>John 14:7-14</t>
+  </si>
+  <si>
+    <t>5th Week of Easter - Mon</t>
+  </si>
+  <si>
+    <t>Acts 14:5-18</t>
+  </si>
+  <si>
+    <t>Ps 115:1-2, 3-4, 15-16</t>
+  </si>
+  <si>
+    <t>John 14:26</t>
+  </si>
+  <si>
+    <t>John 14:21-26</t>
+  </si>
+  <si>
+    <t>5th Week of Easter - Tues</t>
+  </si>
+  <si>
+    <t>Acts 14:19-28</t>
+  </si>
+  <si>
+    <t>Ps 145:10-11, 12-13ab, 21</t>
+  </si>
+  <si>
+    <t>See Luke 24:46+26</t>
+  </si>
+  <si>
+    <t>John 14:27-31a</t>
+  </si>
+  <si>
+    <t>5th Week of Easter - Wed</t>
+  </si>
+  <si>
+    <t>Acts 15:1-6</t>
+  </si>
+  <si>
+    <t>John 15:4a+5b</t>
+  </si>
+  <si>
+    <t>John 15:1-8</t>
+  </si>
+  <si>
+    <t>5th Week of Easter - Thurs</t>
+  </si>
+  <si>
+    <t>Acts 15:7-21</t>
+  </si>
+  <si>
+    <t>Ps 96:1-2a, 2b-3, 10</t>
+  </si>
+  <si>
+    <t>John 15:9-11</t>
+  </si>
+  <si>
+    <t>5th Week of Easter - Fri</t>
+  </si>
+  <si>
+    <t>Acts 15:22-31</t>
+  </si>
+  <si>
+    <t>Ps 57:8-9, 10+12</t>
+  </si>
+  <si>
+    <t>John 15:12-17</t>
+  </si>
+  <si>
+    <t>5th Week of Easter - Sat</t>
+  </si>
+  <si>
+    <t>Acts 16:1-10</t>
+  </si>
+  <si>
+    <t>Ps 100:1b-2, 3, 5</t>
+  </si>
+  <si>
+    <t>John 15:18-21</t>
+  </si>
+  <si>
+    <t>6th Week of Easter - Mon</t>
+  </si>
+  <si>
+    <t>Acts 16:11-15</t>
+  </si>
+  <si>
+    <t>John 15:26b-27a</t>
+  </si>
+  <si>
+    <t>John 15:26-16:4a</t>
+  </si>
+  <si>
+    <t>6th Week of Easter - Tues</t>
+  </si>
+  <si>
+    <t>Acts 16:22-34</t>
+  </si>
+  <si>
+    <t>See John 16:7+13</t>
+  </si>
+  <si>
+    <t>John 16:5-11</t>
+  </si>
+  <si>
+    <t>6th Week of Easter - Wed</t>
+  </si>
+  <si>
+    <t>Acts 17:15, 22—18:1</t>
+  </si>
+  <si>
+    <t>John 14:16</t>
+  </si>
+  <si>
+    <t>John 16:12-15</t>
+  </si>
+  <si>
+    <t>294*</t>
+  </si>
+  <si>
+    <t>6th Week of Easter - Thurs</t>
+  </si>
+  <si>
+    <t>Acts 18:1-8</t>
+  </si>
+  <si>
+    <t>See John 14:18</t>
+  </si>
+  <si>
+    <t>John 16:16-20</t>
+  </si>
+  <si>
+    <t>6th Week of Easter - Fri</t>
+  </si>
+  <si>
+    <t>Acts 18:9-18</t>
+  </si>
+  <si>
+    <t>Ps 47:2-3, 4-5, 6-7</t>
+  </si>
+  <si>
+    <t>John 16:20-23</t>
+  </si>
+  <si>
+    <t>6th Week of Easter - Sat</t>
+  </si>
+  <si>
+    <t>Acts 18:23-28</t>
+  </si>
+  <si>
+    <t>Ps 47:2-3, 8-9, 10</t>
+  </si>
+  <si>
+    <t>John 16:28</t>
+  </si>
+  <si>
+    <t>John 16:23b-28</t>
+  </si>
+  <si>
+    <t>7th Week of Easter - Mon</t>
+  </si>
+  <si>
+    <t>Acts 19:1-8</t>
+  </si>
+  <si>
+    <t>Ps 68:2-3ab, 4-5acd, 6-7ab</t>
+  </si>
+  <si>
+    <t>John 16:29-33</t>
+  </si>
+  <si>
+    <t>7th Week of Easter - Tues</t>
+  </si>
+  <si>
+    <t>Acts 20:17-27</t>
+  </si>
+  <si>
+    <t>Ps 68:10-11, 20-21</t>
+  </si>
+  <si>
+    <t>John 17:1-11a</t>
+  </si>
+  <si>
+    <t>7th Week of Easter - Wed</t>
+  </si>
+  <si>
+    <t>Acts 20:28-38</t>
+  </si>
+  <si>
+    <t>Ps 68:29-30, 33-35a, 35bc-36ab</t>
+  </si>
+  <si>
+    <t>See John 17:17b+17a</t>
+  </si>
+  <si>
+    <t>John 17:11b-19</t>
+  </si>
+  <si>
+    <t>7th Week of Easter - Thurs</t>
+  </si>
+  <si>
+    <t>Acts 22:30; 23:6-11</t>
+  </si>
+  <si>
+    <t>John 17:21</t>
+  </si>
+  <si>
+    <t>John 17:20-26</t>
+  </si>
+  <si>
+    <t>7th Week of Easter - Fri</t>
+  </si>
+  <si>
+    <t>Acts 25:13b-21</t>
+  </si>
+  <si>
+    <t>Ps 103:1-2, 11-12, 19-20ab</t>
+  </si>
+  <si>
+    <t>John 21:15-19</t>
+  </si>
+  <si>
+    <t>7th Week of Easter - Sat morning</t>
+  </si>
+  <si>
+    <t>Acts 28:16-20, 30-31</t>
+  </si>
+  <si>
+    <t>Ps 11:4, 5+7</t>
+  </si>
+  <si>
+    <t>John 16:7+13</t>
+  </si>
+  <si>
+    <t>John 21:20-25</t>
+  </si>
+  <si>
+    <t>John 10:1-10 </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4012,8 +5486,52 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7.5"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="7.5"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4035,6 +5553,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC99CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF66FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF33FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4089,10 +5655,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -4118,35 +5685,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -4166,8 +5709,219 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="10" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="10" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="10" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4455,25 +6209,25 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="13" t="s">
         <v>910</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="12" t="s">
         <v>909</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="12" t="s">
         <v>908</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="12" t="s">
         <v>907</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="12" t="s">
         <v>906</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="12" t="s">
         <v>905</v>
       </c>
-      <c r="G1" s="19">
+      <c r="G1" s="11">
         <v>2013</v>
       </c>
     </row>
@@ -6065,38 +7819,38 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="16">
+      <c r="A71" s="61">
         <v>374</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="63" t="s">
         <v>620</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C71" s="10" t="s">
         <v>619</v>
       </c>
-      <c r="D71" s="15" t="s">
+      <c r="D71" s="63" t="s">
         <v>586</v>
       </c>
-      <c r="E71" s="15" t="s">
+      <c r="E71" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="F71" s="15" t="s">
+      <c r="F71" s="63" t="s">
         <v>618</v>
       </c>
-      <c r="G71" s="18">
+      <c r="G71" s="65">
         <v>41452</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="12"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="10" t="s">
+      <c r="A72" s="62"/>
+      <c r="B72" s="64"/>
+      <c r="C72" s="9" t="s">
         <v>617</v>
       </c>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="17"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="64"/>
+      <c r="F72" s="64"/>
+      <c r="G72" s="66"/>
     </row>
     <row r="73" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
@@ -6835,72 +8589,72 @@
       </c>
     </row>
     <row r="105" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="16">
+      <c r="A105" s="61">
         <v>407</v>
       </c>
-      <c r="B105" s="15" t="s">
+      <c r="B105" s="63" t="s">
         <v>477</v>
       </c>
-      <c r="C105" s="15" t="s">
+      <c r="C105" s="63" t="s">
         <v>476</v>
       </c>
-      <c r="D105" s="15" t="s">
+      <c r="D105" s="63" t="s">
         <v>475</v>
       </c>
-      <c r="E105" s="15" t="s">
+      <c r="E105" s="63" t="s">
         <v>474</v>
       </c>
-      <c r="F105" s="14" t="s">
+      <c r="F105" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="G105" s="18">
+      <c r="G105" s="65">
         <v>41491</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A106" s="12"/>
-      <c r="B106" s="11"/>
-      <c r="C106" s="11"/>
-      <c r="D106" s="11"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="10" t="s">
+      <c r="A106" s="62"/>
+      <c r="B106" s="64"/>
+      <c r="C106" s="64"/>
+      <c r="D106" s="64"/>
+      <c r="E106" s="64"/>
+      <c r="F106" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="G106" s="17"/>
+      <c r="G106" s="66"/>
     </row>
     <row r="107" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="16">
+      <c r="A107" s="61">
         <v>408</v>
       </c>
-      <c r="B107" s="15" t="s">
+      <c r="B107" s="63" t="s">
         <v>471</v>
       </c>
-      <c r="C107" s="15" t="s">
+      <c r="C107" s="63" t="s">
         <v>470</v>
       </c>
-      <c r="D107" s="15" t="s">
+      <c r="D107" s="63" t="s">
         <v>469</v>
       </c>
-      <c r="E107" s="15" t="s">
+      <c r="E107" s="63" t="s">
         <v>468</v>
       </c>
-      <c r="F107" s="14" t="s">
+      <c r="F107" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="G107" s="13" t="s">
+      <c r="G107" s="59" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A108" s="12"/>
-      <c r="B108" s="11"/>
-      <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="10" t="s">
+      <c r="A108" s="62"/>
+      <c r="B108" s="64"/>
+      <c r="C108" s="64"/>
+      <c r="D108" s="64"/>
+      <c r="E108" s="64"/>
+      <c r="F108" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="G108" s="9"/>
+      <c r="G108" s="60"/>
     </row>
     <row r="109" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
@@ -9204,11 +10958,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
     <mergeCell ref="G71:G72"/>
     <mergeCell ref="A105:A106"/>
     <mergeCell ref="B105:B106"/>
@@ -9216,13 +10965,1066 @@
     <mergeCell ref="D105:D106"/>
     <mergeCell ref="E105:E106"/>
     <mergeCell ref="G105:G106"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G107:G108"/>
     <mergeCell ref="A107:A108"/>
     <mergeCell ref="B107:B108"/>
     <mergeCell ref="C107:C108"/>
     <mergeCell ref="D107:D108"/>
     <mergeCell ref="E107:E108"/>
-    <mergeCell ref="G107:G108"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="42">
+        <v>2015</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>909</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>907</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="45">
+        <v>42100</v>
+      </c>
+      <c r="B2" s="46">
+        <v>261</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>1554</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="45">
+        <v>42101</v>
+      </c>
+      <c r="B3" s="46">
+        <v>262</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>1557</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>1554</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="45">
+        <v>42102</v>
+      </c>
+      <c r="B4" s="46">
+        <v>263</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>623</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>1554</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="45">
+        <v>42103</v>
+      </c>
+      <c r="B5" s="46">
+        <v>264</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>898</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>1554</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="45">
+        <v>42104</v>
+      </c>
+      <c r="B6" s="46">
+        <v>265</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>1567</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>1568</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>1554</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="45">
+        <v>42105</v>
+      </c>
+      <c r="B7" s="46">
+        <v>266</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>1571</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>1572</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>1554</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="48">
+        <v>42107</v>
+      </c>
+      <c r="B8" s="49">
+        <v>267</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>1575</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>1576</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>1577</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="48">
+        <v>42108</v>
+      </c>
+      <c r="B9" s="49">
+        <v>268</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>758</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>1581</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="48">
+        <v>42109</v>
+      </c>
+      <c r="B10" s="49">
+        <v>269</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>1584</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>684</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>310</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="48">
+        <v>42110</v>
+      </c>
+      <c r="B11" s="49">
+        <v>270</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>1588</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>1589</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="48">
+        <v>42111</v>
+      </c>
+      <c r="B12" s="49">
+        <v>271</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>360</v>
+      </c>
+      <c r="F12" s="50" t="s">
+        <v>787</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="48">
+        <v>42112</v>
+      </c>
+      <c r="B13" s="49">
+        <v>272</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>1595</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>1596</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>1518</v>
+      </c>
+      <c r="G13" s="50" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="51">
+        <v>42114</v>
+      </c>
+      <c r="B14" s="52">
+        <v>273</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>1600</v>
+      </c>
+      <c r="F14" s="53" t="s">
+        <v>787</v>
+      </c>
+      <c r="G14" s="53" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="51">
+        <v>42115</v>
+      </c>
+      <c r="B15" s="52">
+        <v>274</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>1604</v>
+      </c>
+      <c r="F15" s="53" t="s">
+        <v>1605</v>
+      </c>
+      <c r="G15" s="53" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="51">
+        <v>42116</v>
+      </c>
+      <c r="B16" s="52">
+        <v>275</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>1609</v>
+      </c>
+      <c r="F16" s="53" t="s">
+        <v>1610</v>
+      </c>
+      <c r="G16" s="53" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="51">
+        <v>42117</v>
+      </c>
+      <c r="B17" s="52">
+        <v>276</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>1613</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>1614</v>
+      </c>
+      <c r="F17" s="53" t="s">
+        <v>1615</v>
+      </c>
+      <c r="G17" s="53" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="51">
+        <v>42118</v>
+      </c>
+      <c r="B18" s="52">
+        <v>277</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>1618</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>1619</v>
+      </c>
+      <c r="F18" s="53" t="s">
+        <v>1620</v>
+      </c>
+      <c r="G18" s="53" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="51">
+        <v>42119</v>
+      </c>
+      <c r="B19" s="52">
+        <v>278</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>1623</v>
+      </c>
+      <c r="E19" s="53" t="s">
+        <v>1624</v>
+      </c>
+      <c r="F19" s="53" t="s">
+        <v>1431</v>
+      </c>
+      <c r="G19" s="53" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="56">
+        <v>42121</v>
+      </c>
+      <c r="B20" s="57">
+        <v>279</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D20" s="58" t="s">
+        <v>1627</v>
+      </c>
+      <c r="E20" s="58" t="s">
+        <v>1628</v>
+      </c>
+      <c r="F20" s="58" t="s">
+        <v>573</v>
+      </c>
+      <c r="G20" s="58" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="48">
+        <v>42122</v>
+      </c>
+      <c r="B21" s="49">
+        <v>280</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E21" s="50" t="s">
+        <v>254</v>
+      </c>
+      <c r="F21" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="50" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="48">
+        <v>42123</v>
+      </c>
+      <c r="B22" s="49">
+        <v>281</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>1635</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>1636</v>
+      </c>
+      <c r="F22" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="50" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="48">
+        <v>42124</v>
+      </c>
+      <c r="B23" s="49">
+        <v>282</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E23" s="50" t="s">
+        <v>1640</v>
+      </c>
+      <c r="F23" s="50" t="s">
+        <v>709</v>
+      </c>
+      <c r="G23" s="50" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="48">
+        <v>42125</v>
+      </c>
+      <c r="B24" s="49">
+        <v>283</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>1643</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>1644</v>
+      </c>
+      <c r="F24" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="G24" s="50" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="48">
+        <v>42126</v>
+      </c>
+      <c r="B25" s="49">
+        <v>284</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>1647</v>
+      </c>
+      <c r="E25" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" s="50" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="51">
+        <v>42128</v>
+      </c>
+      <c r="B26" s="52">
+        <v>285</v>
+      </c>
+      <c r="C26" s="53" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D26" s="53" t="s">
+        <v>1650</v>
+      </c>
+      <c r="E26" s="53" t="s">
+        <v>1651</v>
+      </c>
+      <c r="F26" s="53" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G26" s="53" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="51">
+        <v>42129</v>
+      </c>
+      <c r="B27" s="52">
+        <v>286</v>
+      </c>
+      <c r="C27" s="53" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D27" s="53" t="s">
+        <v>1655</v>
+      </c>
+      <c r="E27" s="53" t="s">
+        <v>1656</v>
+      </c>
+      <c r="F27" s="53" t="s">
+        <v>1657</v>
+      </c>
+      <c r="G27" s="53" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="51">
+        <v>42130</v>
+      </c>
+      <c r="B28" s="52">
+        <v>287</v>
+      </c>
+      <c r="C28" s="53" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D28" s="53" t="s">
+        <v>1660</v>
+      </c>
+      <c r="E28" s="53" t="s">
+        <v>278</v>
+      </c>
+      <c r="F28" s="53" t="s">
+        <v>1661</v>
+      </c>
+      <c r="G28" s="53" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="51">
+        <v>42131</v>
+      </c>
+      <c r="B29" s="52">
+        <v>288</v>
+      </c>
+      <c r="C29" s="53" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D29" s="53" t="s">
+        <v>1664</v>
+      </c>
+      <c r="E29" s="53" t="s">
+        <v>1665</v>
+      </c>
+      <c r="F29" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="53" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="51">
+        <v>42132</v>
+      </c>
+      <c r="B30" s="52">
+        <v>289</v>
+      </c>
+      <c r="C30" s="53" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D30" s="53" t="s">
+        <v>1668</v>
+      </c>
+      <c r="E30" s="53" t="s">
+        <v>1669</v>
+      </c>
+      <c r="F30" s="53" t="s">
+        <v>492</v>
+      </c>
+      <c r="G30" s="53" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="51">
+        <v>42133</v>
+      </c>
+      <c r="B31" s="52">
+        <v>290</v>
+      </c>
+      <c r="C31" s="53" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D31" s="53" t="s">
+        <v>1672</v>
+      </c>
+      <c r="E31" s="53" t="s">
+        <v>1673</v>
+      </c>
+      <c r="F31" s="53" t="s">
+        <v>1577</v>
+      </c>
+      <c r="G31" s="53" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="48">
+        <v>42135</v>
+      </c>
+      <c r="B32" s="49">
+        <v>291</v>
+      </c>
+      <c r="C32" s="50" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D32" s="50" t="s">
+        <v>1676</v>
+      </c>
+      <c r="E32" s="50" t="s">
+        <v>270</v>
+      </c>
+      <c r="F32" s="50" t="s">
+        <v>1677</v>
+      </c>
+      <c r="G32" s="50" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="48">
+        <v>42136</v>
+      </c>
+      <c r="B33" s="49">
+        <v>292</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D33" s="50" t="s">
+        <v>1680</v>
+      </c>
+      <c r="E33" s="50" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F33" s="50" t="s">
+        <v>1681</v>
+      </c>
+      <c r="G33" s="50" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="48">
+        <v>42137</v>
+      </c>
+      <c r="B34" s="49">
+        <v>293</v>
+      </c>
+      <c r="C34" s="50" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D34" s="50" t="s">
+        <v>1684</v>
+      </c>
+      <c r="E34" s="50" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F34" s="50" t="s">
+        <v>1685</v>
+      </c>
+      <c r="G34" s="50" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="48">
+        <v>42138</v>
+      </c>
+      <c r="B35" s="49" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E35" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="F35" s="50" t="s">
+        <v>1690</v>
+      </c>
+      <c r="G35" s="50" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="48">
+        <v>42139</v>
+      </c>
+      <c r="B36" s="49">
+        <v>295</v>
+      </c>
+      <c r="C36" s="50" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D36" s="50" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E36" s="50" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F36" s="50" t="s">
+        <v>1657</v>
+      </c>
+      <c r="G36" s="50" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="48">
+        <v>42140</v>
+      </c>
+      <c r="B37" s="49">
+        <v>296</v>
+      </c>
+      <c r="C37" s="50" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D37" s="50" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E37" s="50" t="s">
+        <v>1698</v>
+      </c>
+      <c r="F37" s="50" t="s">
+        <v>1699</v>
+      </c>
+      <c r="G37" s="50" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A38" s="51">
+        <v>42142</v>
+      </c>
+      <c r="B38" s="52">
+        <v>297</v>
+      </c>
+      <c r="C38" s="53" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D38" s="53" t="s">
+        <v>1702</v>
+      </c>
+      <c r="E38" s="53" t="s">
+        <v>1703</v>
+      </c>
+      <c r="F38" s="53" t="s">
+        <v>1577</v>
+      </c>
+      <c r="G38" s="53" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="51">
+        <v>42143</v>
+      </c>
+      <c r="B39" s="52">
+        <v>298</v>
+      </c>
+      <c r="C39" s="53" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D39" s="53" t="s">
+        <v>1706</v>
+      </c>
+      <c r="E39" s="53" t="s">
+        <v>1707</v>
+      </c>
+      <c r="F39" s="53" t="s">
+        <v>1685</v>
+      </c>
+      <c r="G39" s="53" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="51">
+        <v>42144</v>
+      </c>
+      <c r="B40" s="52">
+        <v>299</v>
+      </c>
+      <c r="C40" s="53" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D40" s="53" t="s">
+        <v>1710</v>
+      </c>
+      <c r="E40" s="53" t="s">
+        <v>1711</v>
+      </c>
+      <c r="F40" s="53" t="s">
+        <v>1712</v>
+      </c>
+      <c r="G40" s="53" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="51">
+        <v>42145</v>
+      </c>
+      <c r="B41" s="52">
+        <v>300</v>
+      </c>
+      <c r="C41" s="53" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D41" s="53" t="s">
+        <v>1715</v>
+      </c>
+      <c r="E41" s="53" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F41" s="53" t="s">
+        <v>1716</v>
+      </c>
+      <c r="G41" s="53" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="51">
+        <v>42146</v>
+      </c>
+      <c r="B42" s="52">
+        <v>301</v>
+      </c>
+      <c r="C42" s="53" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D42" s="53" t="s">
+        <v>1719</v>
+      </c>
+      <c r="E42" s="53" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F42" s="53" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G42" s="53" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="51">
+        <v>42147</v>
+      </c>
+      <c r="B43" s="52">
+        <v>302</v>
+      </c>
+      <c r="C43" s="53" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D43" s="53" t="s">
+        <v>1723</v>
+      </c>
+      <c r="E43" s="53" t="s">
+        <v>1724</v>
+      </c>
+      <c r="F43" s="53" t="s">
+        <v>1725</v>
+      </c>
+      <c r="G43" s="53" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="http://www.usccb.org/bible/readings/040615.cfm"/>
+    <hyperlink ref="A3" r:id="rId2" display="http://www.usccb.org/bible/readings/040715.cfm"/>
+    <hyperlink ref="A4" r:id="rId3" display="http://www.usccb.org/bible/readings/040815.cfm"/>
+    <hyperlink ref="A5" r:id="rId4" display="http://www.usccb.org/bible/readings/040915.cfm"/>
+    <hyperlink ref="A6" r:id="rId5" display="http://www.usccb.org/bible/readings/041015.cfm"/>
+    <hyperlink ref="A7" r:id="rId6" display="http://www.usccb.org/bible/readings/041115.cfm"/>
+    <hyperlink ref="A8" r:id="rId7" display="http://www.usccb.org/bible/readings/041315.cfm"/>
+    <hyperlink ref="A9" r:id="rId8" display="http://www.usccb.org/bible/readings/041415.cfm"/>
+    <hyperlink ref="A10" r:id="rId9" display="http://www.usccb.org/bible/readings/041515.cfm"/>
+    <hyperlink ref="A11" r:id="rId10" display="http://www.usccb.org/bible/readings/041615.cfm"/>
+    <hyperlink ref="A12" r:id="rId11" display="http://www.usccb.org/bible/readings/041715.cfm"/>
+    <hyperlink ref="A13" r:id="rId12" display="http://www.usccb.org/bible/readings/041815.cfm"/>
+    <hyperlink ref="A14" r:id="rId13" display="http://www.usccb.org/bible/readings/042015.cfm"/>
+    <hyperlink ref="A15" r:id="rId14" display="http://www.usccb.org/bible/readings/042115.cfm"/>
+    <hyperlink ref="A16" r:id="rId15" display="http://www.usccb.org/bible/readings/042215.cfm"/>
+    <hyperlink ref="A17" r:id="rId16" display="http://www.usccb.org/bible/readings/042315.cfm"/>
+    <hyperlink ref="A18" r:id="rId17" display="http://www.usccb.org/bible/readings/042415.cfm"/>
+    <hyperlink ref="A19" r:id="rId18" display="http://www.usccb.org/bible/readings/042515.cfm"/>
+    <hyperlink ref="A20" r:id="rId19" display="http://www.usccb.org/bible/readings/042715.cfm"/>
+    <hyperlink ref="A21" r:id="rId20" display="http://www.usccb.org/bible/readings/042815.cfm"/>
+    <hyperlink ref="A22" r:id="rId21" display="http://www.usccb.org/bible/readings/042915.cfm"/>
+    <hyperlink ref="A23" r:id="rId22" display="http://www.usccb.org/bible/readings/043015.cfm"/>
+    <hyperlink ref="A24" r:id="rId23" display="http://www.usccb.org/bible/readings/050115.cfm"/>
+    <hyperlink ref="A25" r:id="rId24" display="http://www.usccb.org/bible/readings/050215.cfm"/>
+    <hyperlink ref="A26" r:id="rId25" display="http://www.usccb.org/bible/readings/050415.cfm"/>
+    <hyperlink ref="A27" r:id="rId26" display="http://www.usccb.org/bible/readings/050515.cfm"/>
+    <hyperlink ref="A28" r:id="rId27" display="http://www.usccb.org/bible/readings/050615.cfm"/>
+    <hyperlink ref="A29" r:id="rId28" display="http://www.usccb.org/bible/readings/050715.cfm"/>
+    <hyperlink ref="A30" r:id="rId29" display="http://www.usccb.org/bible/readings/050815.cfm"/>
+    <hyperlink ref="A31" r:id="rId30" display="http://www.usccb.org/bible/readings/050915.cfm"/>
+    <hyperlink ref="A32" r:id="rId31" display="http://www.usccb.org/bible/readings/051115.cfm"/>
+    <hyperlink ref="A33" r:id="rId32" display="http://www.usccb.org/bible/readings/051215.cfm"/>
+    <hyperlink ref="A34" r:id="rId33" display="http://www.usccb.org/bible/readings/051315.cfm"/>
+    <hyperlink ref="A35" r:id="rId34" display="http://www.usccb.org/bible/readings/051415.cfm"/>
+    <hyperlink ref="A36" r:id="rId35" display="http://www.usccb.org/bible/readings/051515.cfm"/>
+    <hyperlink ref="A37" r:id="rId36" display="http://www.usccb.org/bible/readings/051615.cfm"/>
+    <hyperlink ref="A38" r:id="rId37" display="http://www.usccb.org/bible/readings/051815.cfm"/>
+    <hyperlink ref="A39" r:id="rId38" display="http://www.usccb.org/bible/readings/051915.cfm"/>
+    <hyperlink ref="A40" r:id="rId39" display="http://www.usccb.org/bible/readings/052015.cfm"/>
+    <hyperlink ref="A41" r:id="rId40" display="http://www.usccb.org/bible/readings/052115.cfm"/>
+    <hyperlink ref="A42" r:id="rId41" display="http://www.usccb.org/bible/readings/052215.cfm"/>
+    <hyperlink ref="A43" r:id="rId42" display="http://www.usccb.org/bible/readings/052315.cfm"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9238,25 +12040,25 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="13" t="s">
         <v>910</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="12" t="s">
         <v>909</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="12" t="s">
         <v>908</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="12" t="s">
         <v>907</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="12" t="s">
         <v>906</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="12" t="s">
         <v>905</v>
       </c>
-      <c r="G1" s="19">
+      <c r="G1" s="11">
         <v>2013</v>
       </c>
     </row>
@@ -10848,25 +13650,25 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="22">
+      <c r="A71" s="14">
         <v>374</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C71" s="10" t="s">
         <v>619</v>
       </c>
-      <c r="D71" s="14" t="s">
+      <c r="D71" s="10" t="s">
         <v>586</v>
       </c>
-      <c r="E71" s="14" t="s">
+      <c r="E71" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F71" s="14" t="s">
+      <c r="F71" s="10" t="s">
         <v>618</v>
       </c>
-      <c r="G71" s="23">
+      <c r="G71" s="15">
         <v>41452</v>
       </c>
     </row>
@@ -11607,48 +14409,48 @@
       </c>
     </row>
     <row r="104" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="22">
+      <c r="A104" s="14">
         <v>407</v>
       </c>
-      <c r="B104" s="14" t="s">
+      <c r="B104" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="C104" s="14" t="s">
+      <c r="C104" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="D104" s="14" t="s">
+      <c r="D104" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="E104" s="14" t="s">
+      <c r="E104" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="F104" s="14" t="s">
+      <c r="F104" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="G104" s="23">
+      <c r="G104" s="15">
         <v>41491</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="22">
+      <c r="A105" s="14">
         <v>408</v>
       </c>
-      <c r="B105" s="14" t="s">
+      <c r="B105" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="C105" s="14" t="s">
+      <c r="C105" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="D105" s="14" t="s">
+      <c r="D105" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="E105" s="14" t="s">
+      <c r="E105" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="F105" s="14" t="s">
+      <c r="F105" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="G105" s="24" t="s">
+      <c r="G105" s="16" t="s">
         <v>466</v>
       </c>
     </row>
@@ -13968,25 +16770,25 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="12" t="s">
         <v>911</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="12" t="s">
         <v>909</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="12" t="s">
         <v>912</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="12" t="s">
         <v>907</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="12" t="s">
         <v>906</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="12" t="s">
         <v>905</v>
       </c>
-      <c r="G1" s="19">
+      <c r="G1" s="11">
         <v>2014</v>
       </c>
     </row>
@@ -16337,72 +19139,72 @@
       </c>
     </row>
     <row r="104" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="16">
+      <c r="A104" s="61">
         <v>407</v>
       </c>
-      <c r="B104" s="15" t="s">
+      <c r="B104" s="63" t="s">
         <v>477</v>
       </c>
-      <c r="C104" s="15" t="s">
+      <c r="C104" s="63" t="s">
         <v>1110</v>
       </c>
-      <c r="D104" s="15" t="s">
+      <c r="D104" s="63" t="s">
         <v>1111</v>
       </c>
-      <c r="E104" s="15" t="s">
+      <c r="E104" s="63" t="s">
         <v>474</v>
       </c>
-      <c r="F104" s="14" t="s">
+      <c r="F104" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="G104" s="18">
+      <c r="G104" s="65">
         <v>41855</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A105" s="12"/>
-      <c r="B105" s="11"/>
-      <c r="C105" s="11"/>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="10" t="s">
+      <c r="A105" s="62"/>
+      <c r="B105" s="64"/>
+      <c r="C105" s="64"/>
+      <c r="D105" s="64"/>
+      <c r="E105" s="64"/>
+      <c r="F105" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="G105" s="17"/>
+      <c r="G105" s="66"/>
     </row>
     <row r="106" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="16">
+      <c r="A106" s="61">
         <v>408</v>
       </c>
-      <c r="B106" s="15" t="s">
+      <c r="B106" s="63" t="s">
         <v>471</v>
       </c>
-      <c r="C106" s="15" t="s">
+      <c r="C106" s="63" t="s">
         <v>1112</v>
       </c>
-      <c r="D106" s="15" t="s">
+      <c r="D106" s="63" t="s">
         <v>258</v>
       </c>
-      <c r="E106" s="15" t="s">
+      <c r="E106" s="63" t="s">
         <v>468</v>
       </c>
-      <c r="F106" s="14" t="s">
+      <c r="F106" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="G106" s="18">
+      <c r="G106" s="65">
         <v>41856</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A107" s="12"/>
-      <c r="B107" s="11"/>
-      <c r="C107" s="11"/>
-      <c r="D107" s="11"/>
-      <c r="E107" s="11"/>
-      <c r="F107" s="10" t="s">
+      <c r="A107" s="62"/>
+      <c r="B107" s="64"/>
+      <c r="C107" s="64"/>
+      <c r="D107" s="64"/>
+      <c r="E107" s="64"/>
+      <c r="F107" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="G107" s="17"/>
+      <c r="G107" s="66"/>
     </row>
     <row r="108" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
@@ -18706,11 +21508,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E106:E107"/>
     <mergeCell ref="G106:G107"/>
     <mergeCell ref="A104:A105"/>
     <mergeCell ref="B104:B105"/>
@@ -18718,6 +21515,11 @@
     <mergeCell ref="D104:D105"/>
     <mergeCell ref="E104:E105"/>
     <mergeCell ref="G104:G105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:E107"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18727,32 +21529,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
+    <sheetView topLeftCell="A198" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="12" t="s">
         <v>911</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="12" t="s">
         <v>909</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="12" t="s">
         <v>912</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="12" t="s">
         <v>907</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="12" t="s">
         <v>906</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="12" t="s">
         <v>905</v>
       </c>
-      <c r="G1" s="19">
+      <c r="G1" s="11">
         <v>2014</v>
       </c>
     </row>
@@ -21103,48 +23905,48 @@
       </c>
     </row>
     <row r="104" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="22">
+      <c r="A104" s="14">
         <v>407</v>
       </c>
-      <c r="B104" s="14" t="s">
+      <c r="B104" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="C104" s="14" t="s">
+      <c r="C104" s="10" t="s">
         <v>1110</v>
       </c>
-      <c r="D104" s="14" t="s">
+      <c r="D104" s="10" t="s">
         <v>1111</v>
       </c>
-      <c r="E104" s="14" t="s">
+      <c r="E104" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="F104" s="14" t="s">
+      <c r="F104" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="G104" s="23">
+      <c r="G104" s="15">
         <v>41855</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="22">
+      <c r="A105" s="14">
         <v>408</v>
       </c>
-      <c r="B105" s="14" t="s">
+      <c r="B105" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="C105" s="14" t="s">
+      <c r="C105" s="10" t="s">
         <v>1112</v>
       </c>
-      <c r="D105" s="14" t="s">
+      <c r="D105" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="E105" s="14" t="s">
+      <c r="E105" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="F105" s="14" t="s">
+      <c r="F105" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="G105" s="23">
+      <c r="G105" s="15">
         <v>41856</v>
       </c>
     </row>
@@ -23451,4 +26253,4345 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection sqref="A1:F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>909</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>907</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
+        <v>175</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>1291</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>176</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>177</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>813</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>178</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>179</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>180</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+      <c r="A8" s="19">
+        <v>181</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="19">
+        <v>182</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="19">
+        <v>183</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+      <c r="A11" s="19">
+        <v>184</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="19">
+        <v>185</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
+        <v>186</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>1341</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>670</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B19" s="22">
+        <v>42355</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="21">
+        <v>194</v>
+      </c>
+      <c r="B20" s="22">
+        <v>42356</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="21">
+        <v>195</v>
+      </c>
+      <c r="B21" s="22">
+        <v>42357</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="21">
+        <v>196</v>
+      </c>
+      <c r="B22" s="22">
+        <v>42358</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>845</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+      <c r="A23" s="21">
+        <v>197</v>
+      </c>
+      <c r="B23" s="22">
+        <v>42359</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="21">
+        <v>198</v>
+      </c>
+      <c r="B24" s="22">
+        <v>42360</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>916</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="21">
+        <v>199</v>
+      </c>
+      <c r="B25" s="22">
+        <v>42361</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="21">
+        <v>200</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E19" r:id="rId1" display="http://catholic-resources.org/Lectionary/Advent-O-Antiphons.htm"/>
+    <hyperlink ref="E20" r:id="rId2" display="http://catholic-resources.org/Lectionary/Advent-O-Antiphons.htm"/>
+    <hyperlink ref="E21" r:id="rId3" display="http://catholic-resources.org/Lectionary/Advent-O-Antiphons.htm"/>
+    <hyperlink ref="E22" r:id="rId4" display="http://catholic-resources.org/Lectionary/Advent-O-Antiphons.htm"/>
+    <hyperlink ref="E23" r:id="rId5" display="http://catholic-resources.org/Lectionary/Advent-O-Antiphons.htm"/>
+    <hyperlink ref="E24" r:id="rId6" display="http://catholic-resources.org/Lectionary/Advent-O-Antiphons.htm"/>
+    <hyperlink ref="E25" r:id="rId7" display="http://catholic-resources.org/Lectionary/Advent-O-Antiphons.htm"/>
+    <hyperlink ref="E26" r:id="rId8" display="http://catholic-resources.org/Lectionary/Advent-O-Antiphons.htm"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>909</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>907</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
+        <v>175</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>1291</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>176</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>177</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>813</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>178</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>179</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>180</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+      <c r="A8" s="19">
+        <v>181</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="19">
+        <v>182</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="19">
+        <v>183</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+      <c r="A11" s="19">
+        <v>184</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="19">
+        <v>185</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
+        <v>186</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>1341</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>670</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B19" s="22">
+        <v>42355</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="21">
+        <v>194</v>
+      </c>
+      <c r="B20" s="22">
+        <v>42356</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="21">
+        <v>195</v>
+      </c>
+      <c r="B21" s="22">
+        <v>42357</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="21">
+        <v>196</v>
+      </c>
+      <c r="B22" s="22">
+        <v>42358</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>845</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+      <c r="A23" s="21">
+        <v>197</v>
+      </c>
+      <c r="B23" s="22">
+        <v>42359</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="21">
+        <v>198</v>
+      </c>
+      <c r="B24" s="22">
+        <v>42360</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>916</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="21">
+        <v>199</v>
+      </c>
+      <c r="B25" s="22">
+        <v>42361</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="21">
+        <v>200</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E19" r:id="rId1" display="http://catholic-resources.org/Lectionary/Advent-O-Antiphons.htm"/>
+    <hyperlink ref="E20" r:id="rId2" display="http://catholic-resources.org/Lectionary/Advent-O-Antiphons.htm"/>
+    <hyperlink ref="E21" r:id="rId3" display="http://catholic-resources.org/Lectionary/Advent-O-Antiphons.htm"/>
+    <hyperlink ref="E22" r:id="rId4" display="http://catholic-resources.org/Lectionary/Advent-O-Antiphons.htm"/>
+    <hyperlink ref="E23" r:id="rId5" display="http://catholic-resources.org/Lectionary/Advent-O-Antiphons.htm"/>
+    <hyperlink ref="E24" r:id="rId6" display="http://catholic-resources.org/Lectionary/Advent-O-Antiphons.htm"/>
+    <hyperlink ref="E25" r:id="rId7" display="http://catholic-resources.org/Lectionary/Advent-O-Antiphons.htm"/>
+    <hyperlink ref="E26" r:id="rId8" display="http://catholic-resources.org/Lectionary/Advent-O-Antiphons.htm"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="11">
+        <v>2015</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>909</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>907</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="77">
+        <v>42053</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C2" s="79" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E2" s="67" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F2" s="67" t="s">
+        <v>1391</v>
+      </c>
+      <c r="G2" s="67" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="78"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="26" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+    </row>
+    <row r="4" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="27">
+        <v>42054</v>
+      </c>
+      <c r="B4" s="28">
+        <v>220</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>1394</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="27">
+        <v>42055</v>
+      </c>
+      <c r="B5" s="28">
+        <v>221</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>1399</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="27">
+        <v>42056</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>951</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
+        <v>42058</v>
+      </c>
+      <c r="B7" s="31">
+        <v>224</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="30">
+        <v>42059</v>
+      </c>
+      <c r="B8" s="31">
+        <v>225</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>787</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
+        <v>42060</v>
+      </c>
+      <c r="B9" s="31">
+        <v>226</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
+        <v>42061</v>
+      </c>
+      <c r="B10" s="31">
+        <v>227</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>1419</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
+        <v>42062</v>
+      </c>
+      <c r="B11" s="31">
+        <v>228</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>1424</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="30">
+        <v>42063</v>
+      </c>
+      <c r="B12" s="31">
+        <v>229</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="27">
+        <v>42065</v>
+      </c>
+      <c r="B13" s="28">
+        <v>230</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>1430</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>1431</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="27">
+        <v>42066</v>
+      </c>
+      <c r="B14" s="28">
+        <v>231</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>925</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>1424</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="27">
+        <v>42067</v>
+      </c>
+      <c r="B15" s="28">
+        <v>232</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="27">
+        <v>42068</v>
+      </c>
+      <c r="B16" s="28">
+        <v>233</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="27">
+        <v>42069</v>
+      </c>
+      <c r="B17" s="28">
+        <v>234</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>1443</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>565</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="27">
+        <v>42070</v>
+      </c>
+      <c r="B18" s="28">
+        <v>235</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>662</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>1446</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="30">
+        <v>42072</v>
+      </c>
+      <c r="B20" s="31">
+        <v>237</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>1457</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>1458</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="30">
+        <v>42073</v>
+      </c>
+      <c r="B21" s="31">
+        <v>238</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>1340</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="30">
+        <v>42074</v>
+      </c>
+      <c r="B22" s="31">
+        <v>239</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>1431</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="30">
+        <v>42075</v>
+      </c>
+      <c r="B23" s="31">
+        <v>240</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>1467</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>458</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A24" s="30">
+        <v>42076</v>
+      </c>
+      <c r="B24" s="31">
+        <v>241</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>1470</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>1394</v>
+      </c>
+      <c r="G24" s="32" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="30">
+        <v>42077</v>
+      </c>
+      <c r="B25" s="31">
+        <v>242</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A26" s="33" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>1477</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>1478</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="34">
+        <v>42079</v>
+      </c>
+      <c r="B27" s="75">
+        <v>244</v>
+      </c>
+      <c r="C27" s="67" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D27" s="67" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E27" s="67" t="s">
+        <v>1356</v>
+      </c>
+      <c r="F27" s="67" t="s">
+        <v>1483</v>
+      </c>
+      <c r="G27" s="67" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="35" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B28" s="76"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+    </row>
+    <row r="29" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="27">
+        <v>42080</v>
+      </c>
+      <c r="B29" s="28">
+        <v>245</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>1486</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>1487</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>1419</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="27">
+        <v>42081</v>
+      </c>
+      <c r="B30" s="28">
+        <v>246</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>1490</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>1491</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>1492</v>
+      </c>
+      <c r="G30" s="29" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="27">
+        <v>42082</v>
+      </c>
+      <c r="B31" s="28">
+        <v>247</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>504</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="27">
+        <v>42083</v>
+      </c>
+      <c r="B32" s="28">
+        <v>248</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>1499</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>787</v>
+      </c>
+      <c r="G32" s="29" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="27">
+        <v>42084</v>
+      </c>
+      <c r="B33" s="28">
+        <v>249</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>1502</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A34" s="33" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F34" s="32" t="s">
+        <v>1492</v>
+      </c>
+      <c r="G34" s="32" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="34">
+        <v>42086</v>
+      </c>
+      <c r="B35" s="69">
+        <v>251</v>
+      </c>
+      <c r="C35" s="71" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E35" s="71" t="s">
+        <v>813</v>
+      </c>
+      <c r="F35" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="G35" s="36" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="35" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B36" s="70"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="37" t="s">
+        <v>1512</v>
+      </c>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="38" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="30">
+        <v>42087</v>
+      </c>
+      <c r="B37" s="31">
+        <v>252</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F37" s="32" t="s">
+        <v>1518</v>
+      </c>
+      <c r="G37" s="32" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="30">
+        <v>42088</v>
+      </c>
+      <c r="B38" s="31">
+        <v>253</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>1521</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="G38" s="32" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="30">
+        <v>42089</v>
+      </c>
+      <c r="B39" s="31">
+        <v>254</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F39" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="G39" s="32" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="30">
+        <v>42090</v>
+      </c>
+      <c r="B40" s="31">
+        <v>255</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F40" s="32" t="s">
+        <v>1431</v>
+      </c>
+      <c r="G40" s="32" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="30">
+        <v>42091</v>
+      </c>
+      <c r="B41" s="31">
+        <v>256</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F41" s="32" t="s">
+        <v>1424</v>
+      </c>
+      <c r="G41" s="32" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="30">
+        <v>42093</v>
+      </c>
+      <c r="B42" s="28">
+        <v>257</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>1535</v>
+      </c>
+      <c r="E42" s="29" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F42" s="29" t="s">
+        <v>1518</v>
+      </c>
+      <c r="G42" s="29" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="30">
+        <v>42094</v>
+      </c>
+      <c r="B43" s="28">
+        <v>258</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>1539</v>
+      </c>
+      <c r="E43" s="29" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F43" s="29" t="s">
+        <v>1518</v>
+      </c>
+      <c r="G43" s="29" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="30">
+        <v>42095</v>
+      </c>
+      <c r="B44" s="28">
+        <v>259</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>1542</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>1543</v>
+      </c>
+      <c r="F44" s="29" t="s">
+        <v>1518</v>
+      </c>
+      <c r="G44" s="29" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="73" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B45" s="75">
+        <v>260</v>
+      </c>
+      <c r="C45" s="67" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>1546</v>
+      </c>
+      <c r="E45" s="67" t="s">
+        <v>1548</v>
+      </c>
+      <c r="F45" s="67" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G45" s="67" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="74"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="26" t="s">
+        <v>1547</v>
+      </c>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="http://www.usccb.org/bible/readings/021815.cfm"/>
+    <hyperlink ref="A4" r:id="rId2" display="http://www.usccb.org/bible/readings/021915.cfm"/>
+    <hyperlink ref="A5" r:id="rId3" display="http://www.usccb.org/bible/readings/022015.cfm"/>
+    <hyperlink ref="A6" r:id="rId4" display="http://www.usccb.org/bible/readings/022115.cfm"/>
+    <hyperlink ref="A7" r:id="rId5" display="http://www.usccb.org/bible/readings/022315.cfm"/>
+    <hyperlink ref="A8" r:id="rId6" display="http://www.usccb.org/bible/readings/022415.cfm"/>
+    <hyperlink ref="A9" r:id="rId7" display="http://www.usccb.org/bible/readings/022515.cfm"/>
+    <hyperlink ref="A10" r:id="rId8" display="http://www.usccb.org/bible/readings/022615.cfm"/>
+    <hyperlink ref="A11" r:id="rId9" display="http://www.usccb.org/bible/readings/022715.cfm"/>
+    <hyperlink ref="A12" r:id="rId10" display="http://www.usccb.org/bible/readings/022815.cfm"/>
+    <hyperlink ref="A13" r:id="rId11" display="http://www.usccb.org/bible/readings/030215.cfm"/>
+    <hyperlink ref="A14" r:id="rId12" display="http://www.usccb.org/bible/readings/030315.cfm"/>
+    <hyperlink ref="A15" r:id="rId13" display="http://www.usccb.org/bible/readings/030415.cfm"/>
+    <hyperlink ref="A16" r:id="rId14" display="http://www.usccb.org/bible/readings/030515.cfm"/>
+    <hyperlink ref="A17" r:id="rId15" display="http://www.usccb.org/bible/readings/030615.cfm"/>
+    <hyperlink ref="A18" r:id="rId16" display="http://www.usccb.org/bible/readings/030715.cfm"/>
+    <hyperlink ref="A20" r:id="rId17" display="http://www.usccb.org/bible/readings/030915.cfm"/>
+    <hyperlink ref="A21" r:id="rId18" display="http://www.usccb.org/bible/readings/031015.cfm"/>
+    <hyperlink ref="A22" r:id="rId19" display="http://www.usccb.org/bible/readings/031115.cfm"/>
+    <hyperlink ref="A23" r:id="rId20" display="http://www.usccb.org/bible/readings/031215.cfm"/>
+    <hyperlink ref="A24" r:id="rId21" display="http://www.usccb.org/bible/readings/031315.cfm"/>
+    <hyperlink ref="A25" r:id="rId22" display="http://www.usccb.org/bible/readings/031415.cfm"/>
+    <hyperlink ref="A27" r:id="rId23" display="http://www.usccb.org/bible/readings/031615.cfm"/>
+    <hyperlink ref="A29" r:id="rId24" display="http://www.usccb.org/bible/readings/031715.cfm"/>
+    <hyperlink ref="A30" r:id="rId25" display="http://www.usccb.org/bible/readings/031815.cfm"/>
+    <hyperlink ref="A31" r:id="rId26" display="http://www.usccb.org/bible/readings/031915.cfm"/>
+    <hyperlink ref="A32" r:id="rId27" display="http://www.usccb.org/bible/readings/032015.cfm"/>
+    <hyperlink ref="A33" r:id="rId28" display="http://www.usccb.org/bible/readings/032115.cfm"/>
+    <hyperlink ref="A35" r:id="rId29" display="http://www.usccb.org/bible/readings/032315.cfm"/>
+    <hyperlink ref="A37" r:id="rId30" display="http://www.usccb.org/bible/readings/032415.cfm"/>
+    <hyperlink ref="A38" r:id="rId31" display="http://www.usccb.org/bible/readings/032515.cfm"/>
+    <hyperlink ref="A39" r:id="rId32" display="http://www.usccb.org/bible/readings/032615.cfm"/>
+    <hyperlink ref="A40" r:id="rId33" display="http://www.usccb.org/bible/readings/032715.cfm"/>
+    <hyperlink ref="A41" r:id="rId34" display="http://www.usccb.org/bible/readings/032815.cfm"/>
+    <hyperlink ref="A42" r:id="rId35" display="http://www.usccb.org/bible/readings/033015.cfm"/>
+    <hyperlink ref="A43" r:id="rId36" display="http://www.usccb.org/bible/readings/033115.cfm"/>
+    <hyperlink ref="A44" r:id="rId37" display="http://www.usccb.org/bible/readings/040115.cfm"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="11">
+        <v>2015</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>909</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>907</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="77">
+        <v>42053</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C2" s="79" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E2" s="67" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F2" s="67" t="s">
+        <v>1391</v>
+      </c>
+      <c r="G2" s="67" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="78"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="26" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+    </row>
+    <row r="4" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="27">
+        <v>42054</v>
+      </c>
+      <c r="B4" s="28">
+        <v>220</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>1394</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="27">
+        <v>42055</v>
+      </c>
+      <c r="B5" s="28">
+        <v>221</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>1399</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="27">
+        <v>42056</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>951</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
+        <v>42058</v>
+      </c>
+      <c r="B7" s="31">
+        <v>224</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="30">
+        <v>42059</v>
+      </c>
+      <c r="B8" s="31">
+        <v>225</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>787</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
+        <v>42060</v>
+      </c>
+      <c r="B9" s="31">
+        <v>226</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
+        <v>42061</v>
+      </c>
+      <c r="B10" s="31">
+        <v>227</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>1419</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
+        <v>42062</v>
+      </c>
+      <c r="B11" s="31">
+        <v>228</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>1424</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="30">
+        <v>42063</v>
+      </c>
+      <c r="B12" s="31">
+        <v>229</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="27">
+        <v>42065</v>
+      </c>
+      <c r="B13" s="28">
+        <v>230</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>1430</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>1431</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="27">
+        <v>42066</v>
+      </c>
+      <c r="B14" s="28">
+        <v>231</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>925</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>1424</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="27">
+        <v>42067</v>
+      </c>
+      <c r="B15" s="28">
+        <v>232</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="27">
+        <v>42068</v>
+      </c>
+      <c r="B16" s="28">
+        <v>233</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="27">
+        <v>42069</v>
+      </c>
+      <c r="B17" s="28">
+        <v>234</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>1443</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>565</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="27">
+        <v>42070</v>
+      </c>
+      <c r="B18" s="28">
+        <v>235</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>662</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>1446</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="30">
+        <v>42072</v>
+      </c>
+      <c r="B20" s="31">
+        <v>237</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>1457</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>1458</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="30">
+        <v>42073</v>
+      </c>
+      <c r="B21" s="31">
+        <v>238</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>1340</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="30">
+        <v>42074</v>
+      </c>
+      <c r="B22" s="31">
+        <v>239</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>1431</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="30">
+        <v>42075</v>
+      </c>
+      <c r="B23" s="31">
+        <v>240</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>1467</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>458</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A24" s="30">
+        <v>42076</v>
+      </c>
+      <c r="B24" s="31">
+        <v>241</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>1470</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>1394</v>
+      </c>
+      <c r="G24" s="32" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="30">
+        <v>42077</v>
+      </c>
+      <c r="B25" s="31">
+        <v>242</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A26" s="33" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>1477</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>1478</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="34">
+        <v>42079</v>
+      </c>
+      <c r="B27" s="75">
+        <v>244</v>
+      </c>
+      <c r="C27" s="67" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D27" s="67" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E27" s="67" t="s">
+        <v>1356</v>
+      </c>
+      <c r="F27" s="67" t="s">
+        <v>1483</v>
+      </c>
+      <c r="G27" s="67" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="35" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B28" s="76"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+    </row>
+    <row r="29" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="27">
+        <v>42080</v>
+      </c>
+      <c r="B29" s="28">
+        <v>245</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>1486</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>1487</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>1419</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="27">
+        <v>42081</v>
+      </c>
+      <c r="B30" s="28">
+        <v>246</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>1490</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>1491</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>1492</v>
+      </c>
+      <c r="G30" s="29" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="27">
+        <v>42082</v>
+      </c>
+      <c r="B31" s="28">
+        <v>247</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>504</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="27">
+        <v>42083</v>
+      </c>
+      <c r="B32" s="28">
+        <v>248</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>1499</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>787</v>
+      </c>
+      <c r="G32" s="29" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="27">
+        <v>42084</v>
+      </c>
+      <c r="B33" s="28">
+        <v>249</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>1502</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A34" s="33" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F34" s="32" t="s">
+        <v>1492</v>
+      </c>
+      <c r="G34" s="32" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="34">
+        <v>42086</v>
+      </c>
+      <c r="B35" s="69">
+        <v>251</v>
+      </c>
+      <c r="C35" s="71" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E35" s="71" t="s">
+        <v>813</v>
+      </c>
+      <c r="F35" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="G35" s="40" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="35" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B36" s="70"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="37" t="s">
+        <v>1512</v>
+      </c>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="41" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="30">
+        <v>42087</v>
+      </c>
+      <c r="B37" s="31">
+        <v>252</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F37" s="32" t="s">
+        <v>1518</v>
+      </c>
+      <c r="G37" s="32" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="30">
+        <v>42088</v>
+      </c>
+      <c r="B38" s="31">
+        <v>253</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>1521</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="G38" s="32" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="30">
+        <v>42089</v>
+      </c>
+      <c r="B39" s="31">
+        <v>254</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F39" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="G39" s="32" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="30">
+        <v>42090</v>
+      </c>
+      <c r="B40" s="31">
+        <v>255</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F40" s="32" t="s">
+        <v>1431</v>
+      </c>
+      <c r="G40" s="32" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="30">
+        <v>42091</v>
+      </c>
+      <c r="B41" s="31">
+        <v>256</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F41" s="32" t="s">
+        <v>1424</v>
+      </c>
+      <c r="G41" s="32" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="30">
+        <v>42093</v>
+      </c>
+      <c r="B42" s="28">
+        <v>257</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>1535</v>
+      </c>
+      <c r="E42" s="29" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F42" s="29" t="s">
+        <v>1518</v>
+      </c>
+      <c r="G42" s="29" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="30">
+        <v>42094</v>
+      </c>
+      <c r="B43" s="28">
+        <v>258</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>1539</v>
+      </c>
+      <c r="E43" s="29" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F43" s="29" t="s">
+        <v>1518</v>
+      </c>
+      <c r="G43" s="29" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="30">
+        <v>42095</v>
+      </c>
+      <c r="B44" s="28">
+        <v>259</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>1542</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>1543</v>
+      </c>
+      <c r="F44" s="29" t="s">
+        <v>1518</v>
+      </c>
+      <c r="G44" s="29" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="73" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B45" s="75">
+        <v>260</v>
+      </c>
+      <c r="C45" s="67" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D45" s="39" t="s">
+        <v>1546</v>
+      </c>
+      <c r="E45" s="67" t="s">
+        <v>1548</v>
+      </c>
+      <c r="F45" s="67" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G45" s="67" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="74"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="26" t="s">
+        <v>1547</v>
+      </c>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="http://www.usccb.org/bible/readings/021815.cfm"/>
+    <hyperlink ref="A4" r:id="rId2" display="http://www.usccb.org/bible/readings/021915.cfm"/>
+    <hyperlink ref="A5" r:id="rId3" display="http://www.usccb.org/bible/readings/022015.cfm"/>
+    <hyperlink ref="A6" r:id="rId4" display="http://www.usccb.org/bible/readings/022115.cfm"/>
+    <hyperlink ref="A7" r:id="rId5" display="http://www.usccb.org/bible/readings/022315.cfm"/>
+    <hyperlink ref="A8" r:id="rId6" display="http://www.usccb.org/bible/readings/022415.cfm"/>
+    <hyperlink ref="A9" r:id="rId7" display="http://www.usccb.org/bible/readings/022515.cfm"/>
+    <hyperlink ref="A10" r:id="rId8" display="http://www.usccb.org/bible/readings/022615.cfm"/>
+    <hyperlink ref="A11" r:id="rId9" display="http://www.usccb.org/bible/readings/022715.cfm"/>
+    <hyperlink ref="A12" r:id="rId10" display="http://www.usccb.org/bible/readings/022815.cfm"/>
+    <hyperlink ref="A13" r:id="rId11" display="http://www.usccb.org/bible/readings/030215.cfm"/>
+    <hyperlink ref="A14" r:id="rId12" display="http://www.usccb.org/bible/readings/030315.cfm"/>
+    <hyperlink ref="A15" r:id="rId13" display="http://www.usccb.org/bible/readings/030415.cfm"/>
+    <hyperlink ref="A16" r:id="rId14" display="http://www.usccb.org/bible/readings/030515.cfm"/>
+    <hyperlink ref="A17" r:id="rId15" display="http://www.usccb.org/bible/readings/030615.cfm"/>
+    <hyperlink ref="A18" r:id="rId16" display="http://www.usccb.org/bible/readings/030715.cfm"/>
+    <hyperlink ref="A20" r:id="rId17" display="http://www.usccb.org/bible/readings/030915.cfm"/>
+    <hyperlink ref="A21" r:id="rId18" display="http://www.usccb.org/bible/readings/031015.cfm"/>
+    <hyperlink ref="A22" r:id="rId19" display="http://www.usccb.org/bible/readings/031115.cfm"/>
+    <hyperlink ref="A23" r:id="rId20" display="http://www.usccb.org/bible/readings/031215.cfm"/>
+    <hyperlink ref="A24" r:id="rId21" display="http://www.usccb.org/bible/readings/031315.cfm"/>
+    <hyperlink ref="A25" r:id="rId22" display="http://www.usccb.org/bible/readings/031415.cfm"/>
+    <hyperlink ref="A27" r:id="rId23" display="http://www.usccb.org/bible/readings/031615.cfm"/>
+    <hyperlink ref="A29" r:id="rId24" display="http://www.usccb.org/bible/readings/031715.cfm"/>
+    <hyperlink ref="A30" r:id="rId25" display="http://www.usccb.org/bible/readings/031815.cfm"/>
+    <hyperlink ref="A31" r:id="rId26" display="http://www.usccb.org/bible/readings/031915.cfm"/>
+    <hyperlink ref="A32" r:id="rId27" display="http://www.usccb.org/bible/readings/032015.cfm"/>
+    <hyperlink ref="A33" r:id="rId28" display="http://www.usccb.org/bible/readings/032115.cfm"/>
+    <hyperlink ref="A35" r:id="rId29" display="http://www.usccb.org/bible/readings/032315.cfm"/>
+    <hyperlink ref="A37" r:id="rId30" display="http://www.usccb.org/bible/readings/032415.cfm"/>
+    <hyperlink ref="A38" r:id="rId31" display="http://www.usccb.org/bible/readings/032515.cfm"/>
+    <hyperlink ref="A39" r:id="rId32" display="http://www.usccb.org/bible/readings/032615.cfm"/>
+    <hyperlink ref="A40" r:id="rId33" display="http://www.usccb.org/bible/readings/032715.cfm"/>
+    <hyperlink ref="A41" r:id="rId34" display="http://www.usccb.org/bible/readings/032815.cfm"/>
+    <hyperlink ref="A42" r:id="rId35" display="http://www.usccb.org/bible/readings/033015.cfm"/>
+    <hyperlink ref="A43" r:id="rId36" display="http://www.usccb.org/bible/readings/033115.cfm"/>
+    <hyperlink ref="A44" r:id="rId37" display="http://www.usccb.org/bible/readings/040115.cfm"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F43" sqref="A1:G44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="42">
+        <v>2015</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>909</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>907</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="45">
+        <v>42100</v>
+      </c>
+      <c r="B2" s="46">
+        <v>261</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>1554</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="45">
+        <v>42101</v>
+      </c>
+      <c r="B3" s="46">
+        <v>262</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>1557</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>1554</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="45">
+        <v>42102</v>
+      </c>
+      <c r="B4" s="46">
+        <v>263</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>623</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>1554</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="45">
+        <v>42103</v>
+      </c>
+      <c r="B5" s="46">
+        <v>264</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>898</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>1554</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="45">
+        <v>42104</v>
+      </c>
+      <c r="B6" s="46">
+        <v>265</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>1567</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>1568</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>1554</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="45">
+        <v>42105</v>
+      </c>
+      <c r="B7" s="46">
+        <v>266</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>1571</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>1572</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>1554</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="48">
+        <v>42107</v>
+      </c>
+      <c r="B8" s="49">
+        <v>267</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>1575</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>1576</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>1577</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="48">
+        <v>42108</v>
+      </c>
+      <c r="B9" s="49">
+        <v>268</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>758</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>1581</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="48">
+        <v>42109</v>
+      </c>
+      <c r="B10" s="49">
+        <v>269</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>1584</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>684</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>310</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="48">
+        <v>42110</v>
+      </c>
+      <c r="B11" s="49">
+        <v>270</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>1588</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>1589</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="48">
+        <v>42111</v>
+      </c>
+      <c r="B12" s="49">
+        <v>271</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>360</v>
+      </c>
+      <c r="F12" s="50" t="s">
+        <v>787</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="48">
+        <v>42112</v>
+      </c>
+      <c r="B13" s="49">
+        <v>272</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>1595</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>1596</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>1518</v>
+      </c>
+      <c r="G13" s="50" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="51">
+        <v>42114</v>
+      </c>
+      <c r="B14" s="52">
+        <v>273</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>1600</v>
+      </c>
+      <c r="F14" s="53" t="s">
+        <v>787</v>
+      </c>
+      <c r="G14" s="53" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="51">
+        <v>42115</v>
+      </c>
+      <c r="B15" s="52">
+        <v>274</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>1604</v>
+      </c>
+      <c r="F15" s="53" t="s">
+        <v>1605</v>
+      </c>
+      <c r="G15" s="53" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="51">
+        <v>42116</v>
+      </c>
+      <c r="B16" s="52">
+        <v>275</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>1609</v>
+      </c>
+      <c r="F16" s="53" t="s">
+        <v>1610</v>
+      </c>
+      <c r="G16" s="53" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="51">
+        <v>42117</v>
+      </c>
+      <c r="B17" s="52">
+        <v>276</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>1613</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>1614</v>
+      </c>
+      <c r="F17" s="53" t="s">
+        <v>1615</v>
+      </c>
+      <c r="G17" s="53" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="51">
+        <v>42118</v>
+      </c>
+      <c r="B18" s="52">
+        <v>277</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>1618</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>1619</v>
+      </c>
+      <c r="F18" s="53" t="s">
+        <v>1620</v>
+      </c>
+      <c r="G18" s="53" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="51">
+        <v>42119</v>
+      </c>
+      <c r="B19" s="52">
+        <v>278</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>1623</v>
+      </c>
+      <c r="E19" s="53" t="s">
+        <v>1624</v>
+      </c>
+      <c r="F19" s="53" t="s">
+        <v>1431</v>
+      </c>
+      <c r="G19" s="53" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="81">
+        <v>42121</v>
+      </c>
+      <c r="B20" s="83">
+        <v>279</v>
+      </c>
+      <c r="C20" s="85" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D20" s="85" t="s">
+        <v>1627</v>
+      </c>
+      <c r="E20" s="85" t="s">
+        <v>1628</v>
+      </c>
+      <c r="F20" s="85" t="s">
+        <v>573</v>
+      </c>
+      <c r="G20" s="54" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="82"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="55" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="48">
+        <v>42122</v>
+      </c>
+      <c r="B22" s="49">
+        <v>280</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>254</v>
+      </c>
+      <c r="F22" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="50" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="48">
+        <v>42123</v>
+      </c>
+      <c r="B23" s="49">
+        <v>281</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>1635</v>
+      </c>
+      <c r="E23" s="50" t="s">
+        <v>1636</v>
+      </c>
+      <c r="F23" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="50" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="48">
+        <v>42124</v>
+      </c>
+      <c r="B24" s="49">
+        <v>282</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>1640</v>
+      </c>
+      <c r="F24" s="50" t="s">
+        <v>709</v>
+      </c>
+      <c r="G24" s="50" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="48">
+        <v>42125</v>
+      </c>
+      <c r="B25" s="49">
+        <v>283</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>1643</v>
+      </c>
+      <c r="E25" s="50" t="s">
+        <v>1644</v>
+      </c>
+      <c r="F25" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="G25" s="50" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="48">
+        <v>42126</v>
+      </c>
+      <c r="B26" s="49">
+        <v>284</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>1647</v>
+      </c>
+      <c r="E26" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26" s="50" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="51">
+        <v>42128</v>
+      </c>
+      <c r="B27" s="52">
+        <v>285</v>
+      </c>
+      <c r="C27" s="53" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D27" s="53" t="s">
+        <v>1650</v>
+      </c>
+      <c r="E27" s="53" t="s">
+        <v>1651</v>
+      </c>
+      <c r="F27" s="53" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G27" s="53" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="51">
+        <v>42129</v>
+      </c>
+      <c r="B28" s="52">
+        <v>286</v>
+      </c>
+      <c r="C28" s="53" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D28" s="53" t="s">
+        <v>1655</v>
+      </c>
+      <c r="E28" s="53" t="s">
+        <v>1656</v>
+      </c>
+      <c r="F28" s="53" t="s">
+        <v>1657</v>
+      </c>
+      <c r="G28" s="53" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="51">
+        <v>42130</v>
+      </c>
+      <c r="B29" s="52">
+        <v>287</v>
+      </c>
+      <c r="C29" s="53" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D29" s="53" t="s">
+        <v>1660</v>
+      </c>
+      <c r="E29" s="53" t="s">
+        <v>278</v>
+      </c>
+      <c r="F29" s="53" t="s">
+        <v>1661</v>
+      </c>
+      <c r="G29" s="53" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="51">
+        <v>42131</v>
+      </c>
+      <c r="B30" s="52">
+        <v>288</v>
+      </c>
+      <c r="C30" s="53" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D30" s="53" t="s">
+        <v>1664</v>
+      </c>
+      <c r="E30" s="53" t="s">
+        <v>1665</v>
+      </c>
+      <c r="F30" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="53" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="51">
+        <v>42132</v>
+      </c>
+      <c r="B31" s="52">
+        <v>289</v>
+      </c>
+      <c r="C31" s="53" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D31" s="53" t="s">
+        <v>1668</v>
+      </c>
+      <c r="E31" s="53" t="s">
+        <v>1669</v>
+      </c>
+      <c r="F31" s="53" t="s">
+        <v>492</v>
+      </c>
+      <c r="G31" s="53" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="51">
+        <v>42133</v>
+      </c>
+      <c r="B32" s="52">
+        <v>290</v>
+      </c>
+      <c r="C32" s="53" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D32" s="53" t="s">
+        <v>1672</v>
+      </c>
+      <c r="E32" s="53" t="s">
+        <v>1673</v>
+      </c>
+      <c r="F32" s="53" t="s">
+        <v>1577</v>
+      </c>
+      <c r="G32" s="53" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="48">
+        <v>42135</v>
+      </c>
+      <c r="B33" s="49">
+        <v>291</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D33" s="50" t="s">
+        <v>1676</v>
+      </c>
+      <c r="E33" s="50" t="s">
+        <v>270</v>
+      </c>
+      <c r="F33" s="50" t="s">
+        <v>1677</v>
+      </c>
+      <c r="G33" s="50" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="48">
+        <v>42136</v>
+      </c>
+      <c r="B34" s="49">
+        <v>292</v>
+      </c>
+      <c r="C34" s="50" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D34" s="50" t="s">
+        <v>1680</v>
+      </c>
+      <c r="E34" s="50" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F34" s="50" t="s">
+        <v>1681</v>
+      </c>
+      <c r="G34" s="50" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="48">
+        <v>42137</v>
+      </c>
+      <c r="B35" s="49">
+        <v>293</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>1684</v>
+      </c>
+      <c r="E35" s="50" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F35" s="50" t="s">
+        <v>1685</v>
+      </c>
+      <c r="G35" s="50" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="48">
+        <v>42138</v>
+      </c>
+      <c r="B36" s="49" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C36" s="50" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D36" s="50" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E36" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" s="50" t="s">
+        <v>1690</v>
+      </c>
+      <c r="G36" s="50" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="48">
+        <v>42139</v>
+      </c>
+      <c r="B37" s="49">
+        <v>295</v>
+      </c>
+      <c r="C37" s="50" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D37" s="50" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E37" s="50" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F37" s="50" t="s">
+        <v>1657</v>
+      </c>
+      <c r="G37" s="50" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="48">
+        <v>42140</v>
+      </c>
+      <c r="B38" s="49">
+        <v>296</v>
+      </c>
+      <c r="C38" s="50" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D38" s="50" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E38" s="50" t="s">
+        <v>1698</v>
+      </c>
+      <c r="F38" s="50" t="s">
+        <v>1699</v>
+      </c>
+      <c r="G38" s="50" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A39" s="51">
+        <v>42142</v>
+      </c>
+      <c r="B39" s="52">
+        <v>297</v>
+      </c>
+      <c r="C39" s="53" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D39" s="53" t="s">
+        <v>1702</v>
+      </c>
+      <c r="E39" s="53" t="s">
+        <v>1703</v>
+      </c>
+      <c r="F39" s="53" t="s">
+        <v>1577</v>
+      </c>
+      <c r="G39" s="53" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="51">
+        <v>42143</v>
+      </c>
+      <c r="B40" s="52">
+        <v>298</v>
+      </c>
+      <c r="C40" s="53" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D40" s="53" t="s">
+        <v>1706</v>
+      </c>
+      <c r="E40" s="53" t="s">
+        <v>1707</v>
+      </c>
+      <c r="F40" s="53" t="s">
+        <v>1685</v>
+      </c>
+      <c r="G40" s="53" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="51">
+        <v>42144</v>
+      </c>
+      <c r="B41" s="52">
+        <v>299</v>
+      </c>
+      <c r="C41" s="53" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D41" s="53" t="s">
+        <v>1710</v>
+      </c>
+      <c r="E41" s="53" t="s">
+        <v>1711</v>
+      </c>
+      <c r="F41" s="53" t="s">
+        <v>1712</v>
+      </c>
+      <c r="G41" s="53" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="51">
+        <v>42145</v>
+      </c>
+      <c r="B42" s="52">
+        <v>300</v>
+      </c>
+      <c r="C42" s="53" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D42" s="53" t="s">
+        <v>1715</v>
+      </c>
+      <c r="E42" s="53" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F42" s="53" t="s">
+        <v>1716</v>
+      </c>
+      <c r="G42" s="53" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="51">
+        <v>42146</v>
+      </c>
+      <c r="B43" s="52">
+        <v>301</v>
+      </c>
+      <c r="C43" s="53" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D43" s="53" t="s">
+        <v>1719</v>
+      </c>
+      <c r="E43" s="53" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F43" s="53" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G43" s="53" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="51">
+        <v>42147</v>
+      </c>
+      <c r="B44" s="52">
+        <v>302</v>
+      </c>
+      <c r="C44" s="53" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D44" s="53" t="s">
+        <v>1723</v>
+      </c>
+      <c r="E44" s="53" t="s">
+        <v>1724</v>
+      </c>
+      <c r="F44" s="53" t="s">
+        <v>1725</v>
+      </c>
+      <c r="G44" s="53" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="http://www.usccb.org/bible/readings/040615.cfm"/>
+    <hyperlink ref="A3" r:id="rId2" display="http://www.usccb.org/bible/readings/040715.cfm"/>
+    <hyperlink ref="A4" r:id="rId3" display="http://www.usccb.org/bible/readings/040815.cfm"/>
+    <hyperlink ref="A5" r:id="rId4" display="http://www.usccb.org/bible/readings/040915.cfm"/>
+    <hyperlink ref="A6" r:id="rId5" display="http://www.usccb.org/bible/readings/041015.cfm"/>
+    <hyperlink ref="A7" r:id="rId6" display="http://www.usccb.org/bible/readings/041115.cfm"/>
+    <hyperlink ref="A8" r:id="rId7" display="http://www.usccb.org/bible/readings/041315.cfm"/>
+    <hyperlink ref="A9" r:id="rId8" display="http://www.usccb.org/bible/readings/041415.cfm"/>
+    <hyperlink ref="A10" r:id="rId9" display="http://www.usccb.org/bible/readings/041515.cfm"/>
+    <hyperlink ref="A11" r:id="rId10" display="http://www.usccb.org/bible/readings/041615.cfm"/>
+    <hyperlink ref="A12" r:id="rId11" display="http://www.usccb.org/bible/readings/041715.cfm"/>
+    <hyperlink ref="A13" r:id="rId12" display="http://www.usccb.org/bible/readings/041815.cfm"/>
+    <hyperlink ref="A14" r:id="rId13" display="http://www.usccb.org/bible/readings/042015.cfm"/>
+    <hyperlink ref="A15" r:id="rId14" display="http://www.usccb.org/bible/readings/042115.cfm"/>
+    <hyperlink ref="A16" r:id="rId15" display="http://www.usccb.org/bible/readings/042215.cfm"/>
+    <hyperlink ref="A17" r:id="rId16" display="http://www.usccb.org/bible/readings/042315.cfm"/>
+    <hyperlink ref="A18" r:id="rId17" display="http://www.usccb.org/bible/readings/042415.cfm"/>
+    <hyperlink ref="A19" r:id="rId18" display="http://www.usccb.org/bible/readings/042515.cfm"/>
+    <hyperlink ref="A20" r:id="rId19" display="http://www.usccb.org/bible/readings/042715.cfm"/>
+    <hyperlink ref="A22" r:id="rId20" display="http://www.usccb.org/bible/readings/042815.cfm"/>
+    <hyperlink ref="A23" r:id="rId21" display="http://www.usccb.org/bible/readings/042915.cfm"/>
+    <hyperlink ref="A24" r:id="rId22" display="http://www.usccb.org/bible/readings/043015.cfm"/>
+    <hyperlink ref="A25" r:id="rId23" display="http://www.usccb.org/bible/readings/050115.cfm"/>
+    <hyperlink ref="A26" r:id="rId24" display="http://www.usccb.org/bible/readings/050215.cfm"/>
+    <hyperlink ref="A27" r:id="rId25" display="http://www.usccb.org/bible/readings/050415.cfm"/>
+    <hyperlink ref="A28" r:id="rId26" display="http://www.usccb.org/bible/readings/050515.cfm"/>
+    <hyperlink ref="A29" r:id="rId27" display="http://www.usccb.org/bible/readings/050615.cfm"/>
+    <hyperlink ref="A30" r:id="rId28" display="http://www.usccb.org/bible/readings/050715.cfm"/>
+    <hyperlink ref="A31" r:id="rId29" display="http://www.usccb.org/bible/readings/050815.cfm"/>
+    <hyperlink ref="A32" r:id="rId30" display="http://www.usccb.org/bible/readings/050915.cfm"/>
+    <hyperlink ref="A33" r:id="rId31" display="http://www.usccb.org/bible/readings/051115.cfm"/>
+    <hyperlink ref="A34" r:id="rId32" display="http://www.usccb.org/bible/readings/051215.cfm"/>
+    <hyperlink ref="A35" r:id="rId33" display="http://www.usccb.org/bible/readings/051315.cfm"/>
+    <hyperlink ref="A36" r:id="rId34" display="http://www.usccb.org/bible/readings/051415.cfm"/>
+    <hyperlink ref="A37" r:id="rId35" display="http://www.usccb.org/bible/readings/051515.cfm"/>
+    <hyperlink ref="A38" r:id="rId36" display="http://www.usccb.org/bible/readings/051615.cfm"/>
+    <hyperlink ref="A39" r:id="rId37" display="http://www.usccb.org/bible/readings/051815.cfm"/>
+    <hyperlink ref="A40" r:id="rId38" display="http://www.usccb.org/bible/readings/051915.cfm"/>
+    <hyperlink ref="A41" r:id="rId39" display="http://www.usccb.org/bible/readings/052015.cfm"/>
+    <hyperlink ref="A42" r:id="rId40" display="http://www.usccb.org/bible/readings/052115.cfm"/>
+    <hyperlink ref="A43" r:id="rId41" display="http://www.usccb.org/bible/readings/052215.cfm"/>
+    <hyperlink ref="A44" r:id="rId42" display="http://www.usccb.org/bible/readings/052315.cfm"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documentation/miscellaneous/for Import/WeekdayReadings.xlsx
+++ b/documentation/miscellaneous/for Import/WeekdayReadings.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SOFTDEV_IT111(GRP 5)\apc-softdev-it111-05\documentation\miscellaneous\for Import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\apc-softdev-it111-05\documentation\miscellaneous\for Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,6 @@
     <definedName name="Chrism" localSheetId="6">'Original - Lent'!$A$45</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5384" uniqueCount="1728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5380" uniqueCount="1728">
   <si>
     <t>[30:St. Andrew]</t>
   </si>
@@ -5659,7 +5658,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -5781,9 +5780,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -5835,10 +5831,22 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5853,10 +5861,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5864,6 +5872,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5877,28 +5909,10 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="10" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5912,12 +5926,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7819,38 +7827,38 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="61">
+      <c r="A71" s="64">
         <v>374</v>
       </c>
-      <c r="B71" s="63" t="s">
+      <c r="B71" s="66" t="s">
         <v>620</v>
       </c>
       <c r="C71" s="10" t="s">
         <v>619</v>
       </c>
-      <c r="D71" s="63" t="s">
+      <c r="D71" s="66" t="s">
         <v>586</v>
       </c>
-      <c r="E71" s="63" t="s">
+      <c r="E71" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="F71" s="63" t="s">
+      <c r="F71" s="66" t="s">
         <v>618</v>
       </c>
-      <c r="G71" s="65">
+      <c r="G71" s="62">
         <v>41452</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="62"/>
-      <c r="B72" s="64"/>
+      <c r="A72" s="65"/>
+      <c r="B72" s="67"/>
       <c r="C72" s="9" t="s">
         <v>617</v>
       </c>
-      <c r="D72" s="64"/>
-      <c r="E72" s="64"/>
-      <c r="F72" s="64"/>
-      <c r="G72" s="66"/>
+      <c r="D72" s="67"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="67"/>
+      <c r="G72" s="63"/>
     </row>
     <row r="73" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
@@ -8589,72 +8597,72 @@
       </c>
     </row>
     <row r="105" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="61">
+      <c r="A105" s="64">
         <v>407</v>
       </c>
-      <c r="B105" s="63" t="s">
+      <c r="B105" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="C105" s="63" t="s">
+      <c r="C105" s="66" t="s">
         <v>476</v>
       </c>
-      <c r="D105" s="63" t="s">
+      <c r="D105" s="66" t="s">
         <v>475</v>
       </c>
-      <c r="E105" s="63" t="s">
+      <c r="E105" s="66" t="s">
         <v>474</v>
       </c>
       <c r="F105" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="G105" s="65">
+      <c r="G105" s="62">
         <v>41491</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A106" s="62"/>
-      <c r="B106" s="64"/>
-      <c r="C106" s="64"/>
-      <c r="D106" s="64"/>
-      <c r="E106" s="64"/>
+      <c r="A106" s="65"/>
+      <c r="B106" s="67"/>
+      <c r="C106" s="67"/>
+      <c r="D106" s="67"/>
+      <c r="E106" s="67"/>
       <c r="F106" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="G106" s="66"/>
+      <c r="G106" s="63"/>
     </row>
     <row r="107" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="61">
+      <c r="A107" s="64">
         <v>408</v>
       </c>
-      <c r="B107" s="63" t="s">
+      <c r="B107" s="66" t="s">
         <v>471</v>
       </c>
-      <c r="C107" s="63" t="s">
+      <c r="C107" s="66" t="s">
         <v>470</v>
       </c>
-      <c r="D107" s="63" t="s">
+      <c r="D107" s="66" t="s">
         <v>469</v>
       </c>
-      <c r="E107" s="63" t="s">
+      <c r="E107" s="66" t="s">
         <v>468</v>
       </c>
       <c r="F107" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="G107" s="59" t="s">
+      <c r="G107" s="68" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A108" s="62"/>
-      <c r="B108" s="64"/>
-      <c r="C108" s="64"/>
-      <c r="D108" s="64"/>
-      <c r="E108" s="64"/>
+      <c r="A108" s="65"/>
+      <c r="B108" s="67"/>
+      <c r="C108" s="67"/>
+      <c r="D108" s="67"/>
+      <c r="E108" s="67"/>
       <c r="F108" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="G108" s="60"/>
+      <c r="G108" s="69"/>
     </row>
     <row r="109" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
@@ -10958,6 +10966,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
     <mergeCell ref="G71:G72"/>
     <mergeCell ref="A105:A106"/>
     <mergeCell ref="B105:B106"/>
@@ -10970,12 +10984,6 @@
     <mergeCell ref="D71:D72"/>
     <mergeCell ref="E71:E72"/>
     <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10992,991 +11000,991 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="42">
+      <c r="A1" s="41">
         <v>2015</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="42" t="s">
         <v>1284</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="43" t="s">
         <v>909</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="43" t="s">
         <v>1285</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="43" t="s">
         <v>907</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="43" t="s">
         <v>1286</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="43" t="s">
         <v>1287</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="45">
+      <c r="A2" s="44">
         <v>42100</v>
       </c>
-      <c r="B2" s="46">
+      <c r="B2" s="45">
         <v>261</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="46" t="s">
         <v>1551</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="46" t="s">
         <v>1552</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="46" t="s">
         <v>1553</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="46" t="s">
         <v>1554</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="46" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="45">
+      <c r="A3" s="44">
         <v>42101</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="45">
         <v>262</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="46" t="s">
         <v>1556</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="46" t="s">
         <v>1557</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="46" t="s">
         <v>1558</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="46" t="s">
         <v>1554</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="46" t="s">
         <v>1559</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="45">
+      <c r="A4" s="44">
         <v>42102</v>
       </c>
-      <c r="B4" s="46">
+      <c r="B4" s="45">
         <v>263</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="46" t="s">
         <v>1560</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="46" t="s">
         <v>1561</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="46" t="s">
         <v>623</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="46" t="s">
         <v>1554</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="46" t="s">
         <v>1562</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="45">
+      <c r="A5" s="44">
         <v>42103</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="45">
         <v>264</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="46" t="s">
         <v>1563</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="46" t="s">
         <v>1564</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="46" t="s">
         <v>898</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="46" t="s">
         <v>1554</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="G5" s="46" t="s">
         <v>1565</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="45">
+      <c r="A6" s="44">
         <v>42104</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6" s="45">
         <v>265</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="46" t="s">
         <v>1566</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="46" t="s">
         <v>1567</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="46" t="s">
         <v>1568</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="46" t="s">
         <v>1554</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="46" t="s">
         <v>1569</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="45">
+      <c r="A7" s="44">
         <v>42105</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="45">
         <v>266</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="46" t="s">
         <v>1570</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="46" t="s">
         <v>1571</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="46" t="s">
         <v>1572</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="46" t="s">
         <v>1554</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="46" t="s">
         <v>1573</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="48">
+      <c r="A8" s="47">
         <v>42107</v>
       </c>
-      <c r="B8" s="49">
+      <c r="B8" s="48">
         <v>267</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="49" t="s">
         <v>1574</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="49" t="s">
         <v>1575</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="49" t="s">
         <v>1576</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="49" t="s">
         <v>1577</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="49" t="s">
         <v>1578</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="48">
+      <c r="A9" s="47">
         <v>42108</v>
       </c>
-      <c r="B9" s="49">
+      <c r="B9" s="48">
         <v>268</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="49" t="s">
         <v>1579</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="49" t="s">
         <v>1580</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="49" t="s">
         <v>758</v>
       </c>
-      <c r="F9" s="50" t="s">
+      <c r="F9" s="49" t="s">
         <v>1581</v>
       </c>
-      <c r="G9" s="50" t="s">
+      <c r="G9" s="49" t="s">
         <v>1582</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="48">
+      <c r="A10" s="47">
         <v>42109</v>
       </c>
-      <c r="B10" s="49">
+      <c r="B10" s="48">
         <v>269</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="49" t="s">
         <v>1583</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="49" t="s">
         <v>1584</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="49" t="s">
         <v>684</v>
       </c>
-      <c r="F10" s="50" t="s">
+      <c r="F10" s="49" t="s">
         <v>310</v>
       </c>
-      <c r="G10" s="50" t="s">
+      <c r="G10" s="49" t="s">
         <v>1585</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="48">
+      <c r="A11" s="47">
         <v>42110</v>
       </c>
-      <c r="B11" s="49">
+      <c r="B11" s="48">
         <v>270</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="49" t="s">
         <v>1586</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="49" t="s">
         <v>1587</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="49" t="s">
         <v>1588</v>
       </c>
-      <c r="F11" s="50" t="s">
+      <c r="F11" s="49" t="s">
         <v>1589</v>
       </c>
-      <c r="G11" s="50" t="s">
+      <c r="G11" s="49" t="s">
         <v>1590</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="48">
+      <c r="A12" s="47">
         <v>42111</v>
       </c>
-      <c r="B12" s="49">
+      <c r="B12" s="48">
         <v>271</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="49" t="s">
         <v>1591</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="49" t="s">
         <v>1592</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="49" t="s">
         <v>360</v>
       </c>
-      <c r="F12" s="50" t="s">
+      <c r="F12" s="49" t="s">
         <v>787</v>
       </c>
-      <c r="G12" s="50" t="s">
+      <c r="G12" s="49" t="s">
         <v>1593</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="48">
+      <c r="A13" s="47">
         <v>42112</v>
       </c>
-      <c r="B13" s="49">
+      <c r="B13" s="48">
         <v>272</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="49" t="s">
         <v>1594</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="49" t="s">
         <v>1595</v>
       </c>
-      <c r="E13" s="50" t="s">
+      <c r="E13" s="49" t="s">
         <v>1596</v>
       </c>
-      <c r="F13" s="50" t="s">
+      <c r="F13" s="49" t="s">
         <v>1518</v>
       </c>
-      <c r="G13" s="50" t="s">
+      <c r="G13" s="49" t="s">
         <v>1597</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="51">
+      <c r="A14" s="50">
         <v>42114</v>
       </c>
-      <c r="B14" s="52">
+      <c r="B14" s="51">
         <v>273</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="52" t="s">
         <v>1598</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="52" t="s">
         <v>1599</v>
       </c>
-      <c r="E14" s="53" t="s">
+      <c r="E14" s="52" t="s">
         <v>1600</v>
       </c>
-      <c r="F14" s="53" t="s">
+      <c r="F14" s="52" t="s">
         <v>787</v>
       </c>
-      <c r="G14" s="53" t="s">
+      <c r="G14" s="52" t="s">
         <v>1601</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="51">
+      <c r="A15" s="50">
         <v>42115</v>
       </c>
-      <c r="B15" s="52">
+      <c r="B15" s="51">
         <v>274</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="52" t="s">
         <v>1602</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="52" t="s">
         <v>1603</v>
       </c>
-      <c r="E15" s="53" t="s">
+      <c r="E15" s="52" t="s">
         <v>1604</v>
       </c>
-      <c r="F15" s="53" t="s">
+      <c r="F15" s="52" t="s">
         <v>1605</v>
       </c>
-      <c r="G15" s="53" t="s">
+      <c r="G15" s="52" t="s">
         <v>1606</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="51">
+      <c r="A16" s="50">
         <v>42116</v>
       </c>
-      <c r="B16" s="52">
+      <c r="B16" s="51">
         <v>275</v>
       </c>
-      <c r="C16" s="53" t="s">
+      <c r="C16" s="52" t="s">
         <v>1607</v>
       </c>
-      <c r="D16" s="53" t="s">
+      <c r="D16" s="52" t="s">
         <v>1608</v>
       </c>
-      <c r="E16" s="53" t="s">
+      <c r="E16" s="52" t="s">
         <v>1609</v>
       </c>
-      <c r="F16" s="53" t="s">
+      <c r="F16" s="52" t="s">
         <v>1610</v>
       </c>
-      <c r="G16" s="53" t="s">
+      <c r="G16" s="52" t="s">
         <v>1611</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="51">
+      <c r="A17" s="50">
         <v>42117</v>
       </c>
-      <c r="B17" s="52">
+      <c r="B17" s="51">
         <v>276</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="52" t="s">
         <v>1612</v>
       </c>
-      <c r="D17" s="53" t="s">
+      <c r="D17" s="52" t="s">
         <v>1613</v>
       </c>
-      <c r="E17" s="53" t="s">
+      <c r="E17" s="52" t="s">
         <v>1614</v>
       </c>
-      <c r="F17" s="53" t="s">
+      <c r="F17" s="52" t="s">
         <v>1615</v>
       </c>
-      <c r="G17" s="53" t="s">
+      <c r="G17" s="52" t="s">
         <v>1616</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="51">
+      <c r="A18" s="50">
         <v>42118</v>
       </c>
-      <c r="B18" s="52">
+      <c r="B18" s="51">
         <v>277</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="52" t="s">
         <v>1617</v>
       </c>
-      <c r="D18" s="53" t="s">
+      <c r="D18" s="52" t="s">
         <v>1618</v>
       </c>
-      <c r="E18" s="53" t="s">
+      <c r="E18" s="52" t="s">
         <v>1619</v>
       </c>
-      <c r="F18" s="53" t="s">
+      <c r="F18" s="52" t="s">
         <v>1620</v>
       </c>
-      <c r="G18" s="53" t="s">
+      <c r="G18" s="52" t="s">
         <v>1621</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="51">
+      <c r="A19" s="50">
         <v>42119</v>
       </c>
-      <c r="B19" s="52">
+      <c r="B19" s="51">
         <v>278</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="52" t="s">
         <v>1622</v>
       </c>
-      <c r="D19" s="53" t="s">
+      <c r="D19" s="52" t="s">
         <v>1623</v>
       </c>
-      <c r="E19" s="53" t="s">
+      <c r="E19" s="52" t="s">
         <v>1624</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="52" t="s">
         <v>1431</v>
       </c>
-      <c r="G19" s="53" t="s">
+      <c r="G19" s="52" t="s">
         <v>1625</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="56">
+      <c r="A20" s="55">
         <v>42121</v>
       </c>
-      <c r="B20" s="57">
+      <c r="B20" s="56">
         <v>279</v>
       </c>
-      <c r="C20" s="58" t="s">
+      <c r="C20" s="57" t="s">
         <v>1626</v>
       </c>
-      <c r="D20" s="58" t="s">
+      <c r="D20" s="57" t="s">
         <v>1627</v>
       </c>
-      <c r="E20" s="58" t="s">
+      <c r="E20" s="57" t="s">
         <v>1628</v>
       </c>
-      <c r="F20" s="58" t="s">
+      <c r="F20" s="57" t="s">
         <v>573</v>
       </c>
-      <c r="G20" s="58" t="s">
+      <c r="G20" s="57" t="s">
         <v>1727</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="48">
+      <c r="A21" s="47">
         <v>42122</v>
       </c>
-      <c r="B21" s="49">
+      <c r="B21" s="48">
         <v>280</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="49" t="s">
         <v>1631</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="49" t="s">
         <v>1632</v>
       </c>
-      <c r="E21" s="50" t="s">
+      <c r="E21" s="49" t="s">
         <v>254</v>
       </c>
-      <c r="F21" s="50" t="s">
+      <c r="F21" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="50" t="s">
+      <c r="G21" s="49" t="s">
         <v>1633</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="48">
+      <c r="A22" s="47">
         <v>42123</v>
       </c>
-      <c r="B22" s="49">
+      <c r="B22" s="48">
         <v>281</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="49" t="s">
         <v>1634</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="49" t="s">
         <v>1635</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="E22" s="49" t="s">
         <v>1636</v>
       </c>
-      <c r="F22" s="50" t="s">
+      <c r="F22" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="G22" s="50" t="s">
+      <c r="G22" s="49" t="s">
         <v>1637</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="48">
+      <c r="A23" s="47">
         <v>42124</v>
       </c>
-      <c r="B23" s="49">
+      <c r="B23" s="48">
         <v>282</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="49" t="s">
         <v>1638</v>
       </c>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="49" t="s">
         <v>1639</v>
       </c>
-      <c r="E23" s="50" t="s">
+      <c r="E23" s="49" t="s">
         <v>1640</v>
       </c>
-      <c r="F23" s="50" t="s">
+      <c r="F23" s="49" t="s">
         <v>709</v>
       </c>
-      <c r="G23" s="50" t="s">
+      <c r="G23" s="49" t="s">
         <v>1641</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="48">
+      <c r="A24" s="47">
         <v>42125</v>
       </c>
-      <c r="B24" s="49">
+      <c r="B24" s="48">
         <v>283</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="49" t="s">
         <v>1642</v>
       </c>
-      <c r="D24" s="50" t="s">
+      <c r="D24" s="49" t="s">
         <v>1643</v>
       </c>
-      <c r="E24" s="50" t="s">
+      <c r="E24" s="49" t="s">
         <v>1644</v>
       </c>
-      <c r="F24" s="50" t="s">
+      <c r="F24" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="G24" s="50" t="s">
+      <c r="G24" s="49" t="s">
         <v>1645</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="48">
+      <c r="A25" s="47">
         <v>42126</v>
       </c>
-      <c r="B25" s="49">
+      <c r="B25" s="48">
         <v>284</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="49" t="s">
         <v>1646</v>
       </c>
-      <c r="D25" s="50" t="s">
+      <c r="D25" s="49" t="s">
         <v>1647</v>
       </c>
-      <c r="E25" s="50" t="s">
+      <c r="E25" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="F25" s="50" t="s">
+      <c r="F25" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="G25" s="50" t="s">
+      <c r="G25" s="49" t="s">
         <v>1648</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="51">
+      <c r="A26" s="50">
         <v>42128</v>
       </c>
-      <c r="B26" s="52">
+      <c r="B26" s="51">
         <v>285</v>
       </c>
-      <c r="C26" s="53" t="s">
+      <c r="C26" s="52" t="s">
         <v>1649</v>
       </c>
-      <c r="D26" s="53" t="s">
+      <c r="D26" s="52" t="s">
         <v>1650</v>
       </c>
-      <c r="E26" s="53" t="s">
+      <c r="E26" s="52" t="s">
         <v>1651</v>
       </c>
-      <c r="F26" s="53" t="s">
+      <c r="F26" s="52" t="s">
         <v>1652</v>
       </c>
-      <c r="G26" s="53" t="s">
+      <c r="G26" s="52" t="s">
         <v>1653</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="51">
+      <c r="A27" s="50">
         <v>42129</v>
       </c>
-      <c r="B27" s="52">
+      <c r="B27" s="51">
         <v>286</v>
       </c>
-      <c r="C27" s="53" t="s">
+      <c r="C27" s="52" t="s">
         <v>1654</v>
       </c>
-      <c r="D27" s="53" t="s">
+      <c r="D27" s="52" t="s">
         <v>1655</v>
       </c>
-      <c r="E27" s="53" t="s">
+      <c r="E27" s="52" t="s">
         <v>1656</v>
       </c>
-      <c r="F27" s="53" t="s">
+      <c r="F27" s="52" t="s">
         <v>1657</v>
       </c>
-      <c r="G27" s="53" t="s">
+      <c r="G27" s="52" t="s">
         <v>1658</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="51">
+      <c r="A28" s="50">
         <v>42130</v>
       </c>
-      <c r="B28" s="52">
+      <c r="B28" s="51">
         <v>287</v>
       </c>
-      <c r="C28" s="53" t="s">
+      <c r="C28" s="52" t="s">
         <v>1659</v>
       </c>
-      <c r="D28" s="53" t="s">
+      <c r="D28" s="52" t="s">
         <v>1660</v>
       </c>
-      <c r="E28" s="53" t="s">
+      <c r="E28" s="52" t="s">
         <v>278</v>
       </c>
-      <c r="F28" s="53" t="s">
+      <c r="F28" s="52" t="s">
         <v>1661</v>
       </c>
-      <c r="G28" s="53" t="s">
+      <c r="G28" s="52" t="s">
         <v>1662</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="51">
+      <c r="A29" s="50">
         <v>42131</v>
       </c>
-      <c r="B29" s="52">
+      <c r="B29" s="51">
         <v>288</v>
       </c>
-      <c r="C29" s="53" t="s">
+      <c r="C29" s="52" t="s">
         <v>1663</v>
       </c>
-      <c r="D29" s="53" t="s">
+      <c r="D29" s="52" t="s">
         <v>1664</v>
       </c>
-      <c r="E29" s="53" t="s">
+      <c r="E29" s="52" t="s">
         <v>1665</v>
       </c>
-      <c r="F29" s="53" t="s">
+      <c r="F29" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="53" t="s">
+      <c r="G29" s="52" t="s">
         <v>1666</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="51">
+      <c r="A30" s="50">
         <v>42132</v>
       </c>
-      <c r="B30" s="52">
+      <c r="B30" s="51">
         <v>289</v>
       </c>
-      <c r="C30" s="53" t="s">
+      <c r="C30" s="52" t="s">
         <v>1667</v>
       </c>
-      <c r="D30" s="53" t="s">
+      <c r="D30" s="52" t="s">
         <v>1668</v>
       </c>
-      <c r="E30" s="53" t="s">
+      <c r="E30" s="52" t="s">
         <v>1669</v>
       </c>
-      <c r="F30" s="53" t="s">
+      <c r="F30" s="52" t="s">
         <v>492</v>
       </c>
-      <c r="G30" s="53" t="s">
+      <c r="G30" s="52" t="s">
         <v>1670</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="51">
+      <c r="A31" s="50">
         <v>42133</v>
       </c>
-      <c r="B31" s="52">
+      <c r="B31" s="51">
         <v>290</v>
       </c>
-      <c r="C31" s="53" t="s">
+      <c r="C31" s="52" t="s">
         <v>1671</v>
       </c>
-      <c r="D31" s="53" t="s">
+      <c r="D31" s="52" t="s">
         <v>1672</v>
       </c>
-      <c r="E31" s="53" t="s">
+      <c r="E31" s="52" t="s">
         <v>1673</v>
       </c>
-      <c r="F31" s="53" t="s">
+      <c r="F31" s="52" t="s">
         <v>1577</v>
       </c>
-      <c r="G31" s="53" t="s">
+      <c r="G31" s="52" t="s">
         <v>1674</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="48">
+      <c r="A32" s="47">
         <v>42135</v>
       </c>
-      <c r="B32" s="49">
+      <c r="B32" s="48">
         <v>291</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="C32" s="49" t="s">
         <v>1675</v>
       </c>
-      <c r="D32" s="50" t="s">
+      <c r="D32" s="49" t="s">
         <v>1676</v>
       </c>
-      <c r="E32" s="50" t="s">
+      <c r="E32" s="49" t="s">
         <v>270</v>
       </c>
-      <c r="F32" s="50" t="s">
+      <c r="F32" s="49" t="s">
         <v>1677</v>
       </c>
-      <c r="G32" s="50" t="s">
+      <c r="G32" s="49" t="s">
         <v>1678</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="48">
+      <c r="A33" s="47">
         <v>42136</v>
       </c>
-      <c r="B33" s="49">
+      <c r="B33" s="48">
         <v>292</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="49" t="s">
         <v>1679</v>
       </c>
-      <c r="D33" s="50" t="s">
+      <c r="D33" s="49" t="s">
         <v>1680</v>
       </c>
-      <c r="E33" s="50" t="s">
+      <c r="E33" s="49" t="s">
         <v>1418</v>
       </c>
-      <c r="F33" s="50" t="s">
+      <c r="F33" s="49" t="s">
         <v>1681</v>
       </c>
-      <c r="G33" s="50" t="s">
+      <c r="G33" s="49" t="s">
         <v>1682</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="48">
+      <c r="A34" s="47">
         <v>42137</v>
       </c>
-      <c r="B34" s="49">
+      <c r="B34" s="48">
         <v>293</v>
       </c>
-      <c r="C34" s="50" t="s">
+      <c r="C34" s="49" t="s">
         <v>1683</v>
       </c>
-      <c r="D34" s="50" t="s">
+      <c r="D34" s="49" t="s">
         <v>1684</v>
       </c>
-      <c r="E34" s="50" t="s">
+      <c r="E34" s="49" t="s">
         <v>1122</v>
       </c>
-      <c r="F34" s="50" t="s">
+      <c r="F34" s="49" t="s">
         <v>1685</v>
       </c>
-      <c r="G34" s="50" t="s">
+      <c r="G34" s="49" t="s">
         <v>1686</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="48">
+      <c r="A35" s="47">
         <v>42138</v>
       </c>
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="48" t="s">
         <v>1687</v>
       </c>
-      <c r="C35" s="50" t="s">
+      <c r="C35" s="49" t="s">
         <v>1688</v>
       </c>
-      <c r="D35" s="50" t="s">
+      <c r="D35" s="49" t="s">
         <v>1689</v>
       </c>
-      <c r="E35" s="50" t="s">
+      <c r="E35" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="F35" s="50" t="s">
+      <c r="F35" s="49" t="s">
         <v>1690</v>
       </c>
-      <c r="G35" s="50" t="s">
+      <c r="G35" s="49" t="s">
         <v>1691</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="48">
+      <c r="A36" s="47">
         <v>42139</v>
       </c>
-      <c r="B36" s="49">
+      <c r="B36" s="48">
         <v>295</v>
       </c>
-      <c r="C36" s="50" t="s">
+      <c r="C36" s="49" t="s">
         <v>1692</v>
       </c>
-      <c r="D36" s="50" t="s">
+      <c r="D36" s="49" t="s">
         <v>1693</v>
       </c>
-      <c r="E36" s="50" t="s">
+      <c r="E36" s="49" t="s">
         <v>1694</v>
       </c>
-      <c r="F36" s="50" t="s">
+      <c r="F36" s="49" t="s">
         <v>1657</v>
       </c>
-      <c r="G36" s="50" t="s">
+      <c r="G36" s="49" t="s">
         <v>1695</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="48">
+      <c r="A37" s="47">
         <v>42140</v>
       </c>
-      <c r="B37" s="49">
+      <c r="B37" s="48">
         <v>296</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="49" t="s">
         <v>1696</v>
       </c>
-      <c r="D37" s="50" t="s">
+      <c r="D37" s="49" t="s">
         <v>1697</v>
       </c>
-      <c r="E37" s="50" t="s">
+      <c r="E37" s="49" t="s">
         <v>1698</v>
       </c>
-      <c r="F37" s="50" t="s">
+      <c r="F37" s="49" t="s">
         <v>1699</v>
       </c>
-      <c r="G37" s="50" t="s">
+      <c r="G37" s="49" t="s">
         <v>1700</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A38" s="51">
+      <c r="A38" s="50">
         <v>42142</v>
       </c>
-      <c r="B38" s="52">
+      <c r="B38" s="51">
         <v>297</v>
       </c>
-      <c r="C38" s="53" t="s">
+      <c r="C38" s="52" t="s">
         <v>1701</v>
       </c>
-      <c r="D38" s="53" t="s">
+      <c r="D38" s="52" t="s">
         <v>1702</v>
       </c>
-      <c r="E38" s="53" t="s">
+      <c r="E38" s="52" t="s">
         <v>1703</v>
       </c>
-      <c r="F38" s="53" t="s">
+      <c r="F38" s="52" t="s">
         <v>1577</v>
       </c>
-      <c r="G38" s="53" t="s">
+      <c r="G38" s="52" t="s">
         <v>1704</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="51">
+      <c r="A39" s="50">
         <v>42143</v>
       </c>
-      <c r="B39" s="52">
+      <c r="B39" s="51">
         <v>298</v>
       </c>
-      <c r="C39" s="53" t="s">
+      <c r="C39" s="52" t="s">
         <v>1705</v>
       </c>
-      <c r="D39" s="53" t="s">
+      <c r="D39" s="52" t="s">
         <v>1706</v>
       </c>
-      <c r="E39" s="53" t="s">
+      <c r="E39" s="52" t="s">
         <v>1707</v>
       </c>
-      <c r="F39" s="53" t="s">
+      <c r="F39" s="52" t="s">
         <v>1685</v>
       </c>
-      <c r="G39" s="53" t="s">
+      <c r="G39" s="52" t="s">
         <v>1708</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="51">
+      <c r="A40" s="50">
         <v>42144</v>
       </c>
-      <c r="B40" s="52">
+      <c r="B40" s="51">
         <v>299</v>
       </c>
-      <c r="C40" s="53" t="s">
+      <c r="C40" s="52" t="s">
         <v>1709</v>
       </c>
-      <c r="D40" s="53" t="s">
+      <c r="D40" s="52" t="s">
         <v>1710</v>
       </c>
-      <c r="E40" s="53" t="s">
+      <c r="E40" s="52" t="s">
         <v>1711</v>
       </c>
-      <c r="F40" s="53" t="s">
+      <c r="F40" s="52" t="s">
         <v>1712</v>
       </c>
-      <c r="G40" s="53" t="s">
+      <c r="G40" s="52" t="s">
         <v>1713</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="51">
+      <c r="A41" s="50">
         <v>42145</v>
       </c>
-      <c r="B41" s="52">
+      <c r="B41" s="51">
         <v>300</v>
       </c>
-      <c r="C41" s="53" t="s">
+      <c r="C41" s="52" t="s">
         <v>1714</v>
       </c>
-      <c r="D41" s="53" t="s">
+      <c r="D41" s="52" t="s">
         <v>1715</v>
       </c>
-      <c r="E41" s="53" t="s">
+      <c r="E41" s="52" t="s">
         <v>1553</v>
       </c>
-      <c r="F41" s="53" t="s">
+      <c r="F41" s="52" t="s">
         <v>1716</v>
       </c>
-      <c r="G41" s="53" t="s">
+      <c r="G41" s="52" t="s">
         <v>1717</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="51">
+      <c r="A42" s="50">
         <v>42146</v>
       </c>
-      <c r="B42" s="52">
+      <c r="B42" s="51">
         <v>301</v>
       </c>
-      <c r="C42" s="53" t="s">
+      <c r="C42" s="52" t="s">
         <v>1718</v>
       </c>
-      <c r="D42" s="53" t="s">
+      <c r="D42" s="52" t="s">
         <v>1719</v>
       </c>
-      <c r="E42" s="53" t="s">
+      <c r="E42" s="52" t="s">
         <v>1720</v>
       </c>
-      <c r="F42" s="53" t="s">
+      <c r="F42" s="52" t="s">
         <v>1652</v>
       </c>
-      <c r="G42" s="53" t="s">
+      <c r="G42" s="52" t="s">
         <v>1721</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="51">
+      <c r="A43" s="50">
         <v>42147</v>
       </c>
-      <c r="B43" s="52">
+      <c r="B43" s="51">
         <v>302</v>
       </c>
-      <c r="C43" s="53" t="s">
+      <c r="C43" s="52" t="s">
         <v>1722</v>
       </c>
-      <c r="D43" s="53" t="s">
+      <c r="D43" s="52" t="s">
         <v>1723</v>
       </c>
-      <c r="E43" s="53" t="s">
+      <c r="E43" s="52" t="s">
         <v>1724</v>
       </c>
-      <c r="F43" s="53" t="s">
+      <c r="F43" s="52" t="s">
         <v>1725</v>
       </c>
-      <c r="G43" s="53" t="s">
+      <c r="G43" s="52" t="s">
         <v>1726</v>
       </c>
     </row>
@@ -19139,72 +19147,72 @@
       </c>
     </row>
     <row r="104" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="61">
+      <c r="A104" s="64">
         <v>407</v>
       </c>
-      <c r="B104" s="63" t="s">
+      <c r="B104" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="C104" s="63" t="s">
+      <c r="C104" s="66" t="s">
         <v>1110</v>
       </c>
-      <c r="D104" s="63" t="s">
+      <c r="D104" s="66" t="s">
         <v>1111</v>
       </c>
-      <c r="E104" s="63" t="s">
+      <c r="E104" s="66" t="s">
         <v>474</v>
       </c>
       <c r="F104" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="G104" s="65">
+      <c r="G104" s="62">
         <v>41855</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A105" s="62"/>
-      <c r="B105" s="64"/>
-      <c r="C105" s="64"/>
-      <c r="D105" s="64"/>
-      <c r="E105" s="64"/>
+      <c r="A105" s="65"/>
+      <c r="B105" s="67"/>
+      <c r="C105" s="67"/>
+      <c r="D105" s="67"/>
+      <c r="E105" s="67"/>
       <c r="F105" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="G105" s="66"/>
+      <c r="G105" s="63"/>
     </row>
     <row r="106" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="61">
+      <c r="A106" s="64">
         <v>408</v>
       </c>
-      <c r="B106" s="63" t="s">
+      <c r="B106" s="66" t="s">
         <v>471</v>
       </c>
-      <c r="C106" s="63" t="s">
+      <c r="C106" s="66" t="s">
         <v>1112</v>
       </c>
-      <c r="D106" s="63" t="s">
+      <c r="D106" s="66" t="s">
         <v>258</v>
       </c>
-      <c r="E106" s="63" t="s">
+      <c r="E106" s="66" t="s">
         <v>468</v>
       </c>
       <c r="F106" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="G106" s="65">
+      <c r="G106" s="62">
         <v>41856</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A107" s="62"/>
-      <c r="B107" s="64"/>
-      <c r="C107" s="64"/>
-      <c r="D107" s="64"/>
-      <c r="E107" s="64"/>
+      <c r="A107" s="65"/>
+      <c r="B107" s="67"/>
+      <c r="C107" s="67"/>
+      <c r="D107" s="67"/>
+      <c r="E107" s="67"/>
       <c r="F107" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="G107" s="66"/>
+      <c r="G107" s="63"/>
     </row>
     <row r="108" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
@@ -27349,8 +27357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27379,38 +27387,38 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="77">
+      <c r="A2" s="72">
         <v>42053</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="74" t="s">
         <v>1386</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="76" t="s">
         <v>1387</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>1388</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="70" t="s">
         <v>1390</v>
       </c>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="70" t="s">
         <v>1391</v>
       </c>
-      <c r="G2" s="67" t="s">
+      <c r="G2" s="70" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="78"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="80"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="26" t="s">
         <v>1389</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
     </row>
     <row r="4" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
@@ -27945,22 +27953,22 @@
       <c r="A27" s="34">
         <v>42079</v>
       </c>
-      <c r="B27" s="75">
+      <c r="B27" s="74">
         <v>244</v>
       </c>
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="70" t="s">
         <v>1481</v>
       </c>
-      <c r="D27" s="67" t="s">
+      <c r="D27" s="70" t="s">
         <v>1482</v>
       </c>
-      <c r="E27" s="67" t="s">
+      <c r="E27" s="70" t="s">
         <v>1356</v>
       </c>
-      <c r="F27" s="67" t="s">
+      <c r="F27" s="70" t="s">
         <v>1483</v>
       </c>
-      <c r="G27" s="67" t="s">
+      <c r="G27" s="70" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27968,12 +27976,12 @@
       <c r="A28" s="35" t="s">
         <v>1480</v>
       </c>
-      <c r="B28" s="76"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
     </row>
     <row r="29" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A29" s="27">
@@ -28117,19 +28125,19 @@
       <c r="A35" s="34">
         <v>42086</v>
       </c>
-      <c r="B35" s="69">
+      <c r="B35" s="80">
         <v>251</v>
       </c>
-      <c r="C35" s="71" t="s">
+      <c r="C35" s="82" t="s">
         <v>1510</v>
       </c>
       <c r="D35" s="36" t="s">
         <v>1511</v>
       </c>
-      <c r="E35" s="71" t="s">
+      <c r="E35" s="82" t="s">
         <v>813</v>
       </c>
-      <c r="F35" s="71" t="s">
+      <c r="F35" s="82" t="s">
         <v>151</v>
       </c>
       <c r="G35" s="36" t="s">
@@ -28140,13 +28148,13 @@
       <c r="A36" s="35" t="s">
         <v>1480</v>
       </c>
-      <c r="B36" s="70"/>
-      <c r="C36" s="72"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="83"/>
       <c r="D36" s="37" t="s">
         <v>1512</v>
       </c>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
+      <c r="E36" s="83"/>
+      <c r="F36" s="83"/>
       <c r="G36" s="38" t="s">
         <v>1514</v>
       </c>
@@ -28336,41 +28344,51 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="73" t="s">
+      <c r="A45" s="78" t="s">
         <v>1448</v>
       </c>
-      <c r="B45" s="75">
+      <c r="B45" s="74">
         <v>260</v>
       </c>
-      <c r="C45" s="67" t="s">
+      <c r="C45" s="70" t="s">
         <v>1545</v>
       </c>
       <c r="D45" s="25" t="s">
         <v>1546</v>
       </c>
-      <c r="E45" s="67" t="s">
+      <c r="E45" s="70" t="s">
         <v>1548</v>
       </c>
-      <c r="F45" s="67" t="s">
+      <c r="F45" s="70" t="s">
         <v>1549</v>
       </c>
-      <c r="G45" s="67" t="s">
+      <c r="G45" s="70" t="s">
         <v>1550</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="74"/>
-      <c r="B46" s="76"/>
-      <c r="C46" s="68"/>
+      <c r="A46" s="79"/>
+      <c r="B46" s="75"/>
+      <c r="C46" s="71"/>
       <c r="D46" s="26" t="s">
         <v>1547</v>
       </c>
-      <c r="E46" s="68"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="68"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -28383,16 +28401,6 @@
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="F27:F28"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="http://www.usccb.org/bible/readings/021815.cfm"/>
@@ -28439,10 +28447,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40:G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28471,38 +28479,38 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="77">
+      <c r="A2" s="72">
         <v>42053</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="74" t="s">
         <v>1386</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="76" t="s">
         <v>1387</v>
       </c>
       <c r="D2" s="39" t="s">
         <v>1388</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="70" t="s">
         <v>1390</v>
       </c>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="70" t="s">
         <v>1391</v>
       </c>
-      <c r="G2" s="67" t="s">
+      <c r="G2" s="70" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="78"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="80"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="26" t="s">
         <v>1389</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
     </row>
     <row r="4" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
@@ -29037,454 +29045,418 @@
       <c r="A27" s="34">
         <v>42079</v>
       </c>
-      <c r="B27" s="75">
+      <c r="B27" s="61">
         <v>244</v>
       </c>
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="58" t="s">
         <v>1481</v>
       </c>
-      <c r="D27" s="67" t="s">
+      <c r="D27" s="58" t="s">
         <v>1482</v>
       </c>
-      <c r="E27" s="67" t="s">
+      <c r="E27" s="58" t="s">
         <v>1356</v>
       </c>
-      <c r="F27" s="67" t="s">
+      <c r="F27" s="58" t="s">
         <v>1483</v>
       </c>
-      <c r="G27" s="67" t="s">
+      <c r="G27" s="58" t="s">
         <v>1484</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
-        <v>1480</v>
-      </c>
-      <c r="B28" s="76"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-    </row>
-    <row r="29" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="27">
+        <v>42080</v>
+      </c>
+      <c r="B28" s="28">
+        <v>245</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>1486</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>1487</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>1419</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A29" s="27">
-        <v>42080</v>
+        <v>42081</v>
       </c>
       <c r="B29" s="28">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>1485</v>
+        <v>1489</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>1486</v>
+        <v>1490</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>1487</v>
+        <v>1491</v>
       </c>
       <c r="F29" s="29" t="s">
-        <v>1419</v>
+        <v>1492</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>1488</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A30" s="27">
-        <v>42081</v>
+        <v>42082</v>
       </c>
       <c r="B30" s="28">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>1489</v>
+        <v>1494</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>1490</v>
+        <v>1495</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>1491</v>
+        <v>504</v>
       </c>
       <c r="F30" s="29" t="s">
-        <v>1492</v>
+        <v>310</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>1493</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A31" s="27">
-        <v>42082</v>
+        <v>42083</v>
       </c>
       <c r="B31" s="28">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>1494</v>
+        <v>1497</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>1495</v>
+        <v>1498</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>504</v>
+        <v>1499</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>310</v>
+        <v>787</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>1496</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A32" s="27">
-        <v>42083</v>
+        <v>42084</v>
       </c>
       <c r="B32" s="28">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>1497</v>
+        <v>1501</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>1498</v>
+        <v>1502</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>1499</v>
+        <v>1503</v>
       </c>
       <c r="F32" s="29" t="s">
-        <v>787</v>
+        <v>287</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="27">
-        <v>42084</v>
-      </c>
-      <c r="B33" s="28">
-        <v>249</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>1501</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>1502</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>1503</v>
-      </c>
-      <c r="F33" s="29" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A33" s="33" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F33" s="32" t="s">
+        <v>1492</v>
+      </c>
+      <c r="G33" s="32" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="34">
+        <v>42086</v>
+      </c>
+      <c r="B34" s="59">
+        <v>251</v>
+      </c>
+      <c r="C34" s="60" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E34" s="60" t="s">
+        <v>813</v>
+      </c>
+      <c r="F34" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="G34" s="40" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="30">
+        <v>42087</v>
+      </c>
+      <c r="B35" s="31">
+        <v>252</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>1518</v>
+      </c>
+      <c r="G35" s="32" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="30">
+        <v>42088</v>
+      </c>
+      <c r="B36" s="31">
+        <v>253</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>1521</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="G33" s="29" t="s">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A34" s="33" t="s">
-        <v>1448</v>
-      </c>
-      <c r="B34" s="31" t="s">
-        <v>1505</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>1506</v>
-      </c>
-      <c r="D34" s="32" t="s">
-        <v>1507</v>
-      </c>
-      <c r="E34" s="32" t="s">
-        <v>1508</v>
-      </c>
-      <c r="F34" s="32" t="s">
-        <v>1492</v>
-      </c>
-      <c r="G34" s="32" t="s">
-        <v>1509</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="34">
-        <v>42086</v>
-      </c>
-      <c r="B35" s="69">
-        <v>251</v>
-      </c>
-      <c r="C35" s="71" t="s">
-        <v>1510</v>
-      </c>
-      <c r="D35" s="40" t="s">
-        <v>1511</v>
-      </c>
-      <c r="E35" s="71" t="s">
-        <v>813</v>
-      </c>
-      <c r="F35" s="71" t="s">
-        <v>151</v>
-      </c>
-      <c r="G35" s="40" t="s">
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="35" t="s">
-        <v>1480</v>
-      </c>
-      <c r="B36" s="70"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="37" t="s">
-        <v>1512</v>
-      </c>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="41" t="s">
-        <v>1514</v>
+      <c r="G36" s="32" t="s">
+        <v>1522</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A37" s="30">
-        <v>42087</v>
+        <v>42089</v>
       </c>
       <c r="B37" s="31">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>1515</v>
+        <v>1523</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>1516</v>
+        <v>1524</v>
       </c>
       <c r="E37" s="32" t="s">
-        <v>1517</v>
+        <v>1525</v>
       </c>
       <c r="F37" s="32" t="s">
-        <v>1518</v>
+        <v>40</v>
       </c>
       <c r="G37" s="32" t="s">
-        <v>1519</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A38" s="30">
-        <v>42088</v>
+        <v>42090</v>
       </c>
       <c r="B38" s="31">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>1520</v>
+        <v>1527</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>1521</v>
+        <v>1528</v>
       </c>
       <c r="E38" s="32" t="s">
-        <v>26</v>
+        <v>1529</v>
       </c>
       <c r="F38" s="32" t="s">
-        <v>287</v>
+        <v>1431</v>
       </c>
       <c r="G38" s="32" t="s">
-        <v>1522</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
-        <v>42089</v>
+        <v>42091</v>
       </c>
       <c r="B39" s="31">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>1523</v>
+        <v>1531</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>1524</v>
+        <v>1532</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>1525</v>
+        <v>1095</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>40</v>
+        <v>1424</v>
       </c>
       <c r="G39" s="32" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A40" s="30">
-        <v>42090</v>
-      </c>
-      <c r="B40" s="31">
-        <v>255</v>
-      </c>
-      <c r="C40" s="32" t="s">
-        <v>1527</v>
-      </c>
-      <c r="D40" s="32" t="s">
-        <v>1528</v>
-      </c>
-      <c r="E40" s="32" t="s">
-        <v>1529</v>
-      </c>
-      <c r="F40" s="32" t="s">
-        <v>1431</v>
-      </c>
-      <c r="G40" s="32" t="s">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+        <v>42093</v>
+      </c>
+      <c r="B40" s="28">
+        <v>257</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>1535</v>
+      </c>
+      <c r="E40" s="29" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F40" s="29" t="s">
+        <v>1518</v>
+      </c>
+      <c r="G40" s="29" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A41" s="30">
-        <v>42091</v>
-      </c>
-      <c r="B41" s="31">
-        <v>256</v>
-      </c>
-      <c r="C41" s="32" t="s">
-        <v>1531</v>
-      </c>
-      <c r="D41" s="32" t="s">
-        <v>1532</v>
-      </c>
-      <c r="E41" s="32" t="s">
-        <v>1095</v>
-      </c>
-      <c r="F41" s="32" t="s">
-        <v>1424</v>
-      </c>
-      <c r="G41" s="32" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+        <v>42094</v>
+      </c>
+      <c r="B41" s="28">
+        <v>258</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>1539</v>
+      </c>
+      <c r="E41" s="29" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F41" s="29" t="s">
+        <v>1518</v>
+      </c>
+      <c r="G41" s="29" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A42" s="30">
-        <v>42093</v>
+        <v>42095</v>
       </c>
       <c r="B42" s="28">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>1534</v>
+        <v>1541</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>1535</v>
+        <v>1542</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>1536</v>
+        <v>1543</v>
       </c>
       <c r="F42" s="29" t="s">
         <v>1518</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>1537</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="30">
-        <v>42094</v>
-      </c>
-      <c r="B43" s="28">
-        <v>258</v>
-      </c>
-      <c r="C43" s="29" t="s">
-        <v>1538</v>
-      </c>
-      <c r="D43" s="29" t="s">
-        <v>1539</v>
-      </c>
-      <c r="E43" s="29" t="s">
-        <v>1091</v>
-      </c>
-      <c r="F43" s="29" t="s">
-        <v>1518</v>
-      </c>
-      <c r="G43" s="29" t="s">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="30">
-        <v>42095</v>
-      </c>
-      <c r="B44" s="28">
-        <v>259</v>
-      </c>
-      <c r="C44" s="29" t="s">
-        <v>1541</v>
-      </c>
-      <c r="D44" s="29" t="s">
-        <v>1542</v>
-      </c>
-      <c r="E44" s="29" t="s">
-        <v>1543</v>
-      </c>
-      <c r="F44" s="29" t="s">
-        <v>1518</v>
-      </c>
-      <c r="G44" s="29" t="s">
         <v>1544</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="73" t="s">
+    <row r="43" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="78" t="s">
         <v>1448</v>
       </c>
-      <c r="B45" s="75">
+      <c r="B43" s="74">
         <v>260</v>
       </c>
-      <c r="C45" s="67" t="s">
+      <c r="C43" s="70" t="s">
         <v>1545</v>
       </c>
-      <c r="D45" s="39" t="s">
+      <c r="D43" s="39" t="s">
         <v>1546</v>
       </c>
-      <c r="E45" s="67" t="s">
+      <c r="E43" s="70" t="s">
         <v>1548</v>
       </c>
-      <c r="F45" s="67" t="s">
+      <c r="F43" s="70" t="s">
         <v>1549</v>
       </c>
-      <c r="G45" s="67" t="s">
+      <c r="G43" s="70" t="s">
         <v>1550</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="74"/>
-      <c r="B46" s="76"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="26" t="s">
+    <row r="44" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="79"/>
+      <c r="B44" s="75"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="26" t="s">
         <v>1547</v>
       </c>
-      <c r="E46" s="68"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="68"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="71"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
+  <mergeCells count="12">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="http://www.usccb.org/bible/readings/021815.cfm"/>
@@ -29510,20 +29482,20 @@
     <hyperlink ref="A24" r:id="rId21" display="http://www.usccb.org/bible/readings/031315.cfm"/>
     <hyperlink ref="A25" r:id="rId22" display="http://www.usccb.org/bible/readings/031415.cfm"/>
     <hyperlink ref="A27" r:id="rId23" display="http://www.usccb.org/bible/readings/031615.cfm"/>
-    <hyperlink ref="A29" r:id="rId24" display="http://www.usccb.org/bible/readings/031715.cfm"/>
-    <hyperlink ref="A30" r:id="rId25" display="http://www.usccb.org/bible/readings/031815.cfm"/>
-    <hyperlink ref="A31" r:id="rId26" display="http://www.usccb.org/bible/readings/031915.cfm"/>
-    <hyperlink ref="A32" r:id="rId27" display="http://www.usccb.org/bible/readings/032015.cfm"/>
-    <hyperlink ref="A33" r:id="rId28" display="http://www.usccb.org/bible/readings/032115.cfm"/>
-    <hyperlink ref="A35" r:id="rId29" display="http://www.usccb.org/bible/readings/032315.cfm"/>
-    <hyperlink ref="A37" r:id="rId30" display="http://www.usccb.org/bible/readings/032415.cfm"/>
-    <hyperlink ref="A38" r:id="rId31" display="http://www.usccb.org/bible/readings/032515.cfm"/>
-    <hyperlink ref="A39" r:id="rId32" display="http://www.usccb.org/bible/readings/032615.cfm"/>
-    <hyperlink ref="A40" r:id="rId33" display="http://www.usccb.org/bible/readings/032715.cfm"/>
-    <hyperlink ref="A41" r:id="rId34" display="http://www.usccb.org/bible/readings/032815.cfm"/>
-    <hyperlink ref="A42" r:id="rId35" display="http://www.usccb.org/bible/readings/033015.cfm"/>
-    <hyperlink ref="A43" r:id="rId36" display="http://www.usccb.org/bible/readings/033115.cfm"/>
-    <hyperlink ref="A44" r:id="rId37" display="http://www.usccb.org/bible/readings/040115.cfm"/>
+    <hyperlink ref="A28" r:id="rId24" display="http://www.usccb.org/bible/readings/031715.cfm"/>
+    <hyperlink ref="A29" r:id="rId25" display="http://www.usccb.org/bible/readings/031815.cfm"/>
+    <hyperlink ref="A30" r:id="rId26" display="http://www.usccb.org/bible/readings/031915.cfm"/>
+    <hyperlink ref="A31" r:id="rId27" display="http://www.usccb.org/bible/readings/032015.cfm"/>
+    <hyperlink ref="A32" r:id="rId28" display="http://www.usccb.org/bible/readings/032115.cfm"/>
+    <hyperlink ref="A34" r:id="rId29" display="http://www.usccb.org/bible/readings/032315.cfm"/>
+    <hyperlink ref="A35" r:id="rId30" display="http://www.usccb.org/bible/readings/032415.cfm"/>
+    <hyperlink ref="A36" r:id="rId31" display="http://www.usccb.org/bible/readings/032515.cfm"/>
+    <hyperlink ref="A37" r:id="rId32" display="http://www.usccb.org/bible/readings/032615.cfm"/>
+    <hyperlink ref="A38" r:id="rId33" display="http://www.usccb.org/bible/readings/032715.cfm"/>
+    <hyperlink ref="A39" r:id="rId34" display="http://www.usccb.org/bible/readings/032815.cfm"/>
+    <hyperlink ref="A40" r:id="rId35" display="http://www.usccb.org/bible/readings/033015.cfm"/>
+    <hyperlink ref="A41" r:id="rId36" display="http://www.usccb.org/bible/readings/033115.cfm"/>
+    <hyperlink ref="A42" r:id="rId37" display="http://www.usccb.org/bible/readings/040115.cfm"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29540,1002 +29512,1002 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="42">
+      <c r="A1" s="41">
         <v>2015</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="42" t="s">
         <v>1284</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="43" t="s">
         <v>909</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="43" t="s">
         <v>1285</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="43" t="s">
         <v>907</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="43" t="s">
         <v>1286</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="43" t="s">
         <v>1287</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="45">
+      <c r="A2" s="44">
         <v>42100</v>
       </c>
-      <c r="B2" s="46">
+      <c r="B2" s="45">
         <v>261</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="46" t="s">
         <v>1551</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="46" t="s">
         <v>1552</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="46" t="s">
         <v>1553</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="46" t="s">
         <v>1554</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="46" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="45">
+      <c r="A3" s="44">
         <v>42101</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="45">
         <v>262</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="46" t="s">
         <v>1556</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="46" t="s">
         <v>1557</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="46" t="s">
         <v>1558</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="46" t="s">
         <v>1554</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="46" t="s">
         <v>1559</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="45">
+      <c r="A4" s="44">
         <v>42102</v>
       </c>
-      <c r="B4" s="46">
+      <c r="B4" s="45">
         <v>263</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="46" t="s">
         <v>1560</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="46" t="s">
         <v>1561</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="46" t="s">
         <v>623</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="46" t="s">
         <v>1554</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="46" t="s">
         <v>1562</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="45">
+      <c r="A5" s="44">
         <v>42103</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="45">
         <v>264</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="46" t="s">
         <v>1563</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="46" t="s">
         <v>1564</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="46" t="s">
         <v>898</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="46" t="s">
         <v>1554</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="G5" s="46" t="s">
         <v>1565</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="45">
+      <c r="A6" s="44">
         <v>42104</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6" s="45">
         <v>265</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="46" t="s">
         <v>1566</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="46" t="s">
         <v>1567</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="46" t="s">
         <v>1568</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="46" t="s">
         <v>1554</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="46" t="s">
         <v>1569</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="45">
+      <c r="A7" s="44">
         <v>42105</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="45">
         <v>266</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="46" t="s">
         <v>1570</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="46" t="s">
         <v>1571</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="46" t="s">
         <v>1572</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="46" t="s">
         <v>1554</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="46" t="s">
         <v>1573</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="48">
+      <c r="A8" s="47">
         <v>42107</v>
       </c>
-      <c r="B8" s="49">
+      <c r="B8" s="48">
         <v>267</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="49" t="s">
         <v>1574</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="49" t="s">
         <v>1575</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="49" t="s">
         <v>1576</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="49" t="s">
         <v>1577</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="49" t="s">
         <v>1578</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="48">
+      <c r="A9" s="47">
         <v>42108</v>
       </c>
-      <c r="B9" s="49">
+      <c r="B9" s="48">
         <v>268</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="49" t="s">
         <v>1579</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="49" t="s">
         <v>1580</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="49" t="s">
         <v>758</v>
       </c>
-      <c r="F9" s="50" t="s">
+      <c r="F9" s="49" t="s">
         <v>1581</v>
       </c>
-      <c r="G9" s="50" t="s">
+      <c r="G9" s="49" t="s">
         <v>1582</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="48">
+      <c r="A10" s="47">
         <v>42109</v>
       </c>
-      <c r="B10" s="49">
+      <c r="B10" s="48">
         <v>269</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="49" t="s">
         <v>1583</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="49" t="s">
         <v>1584</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="49" t="s">
         <v>684</v>
       </c>
-      <c r="F10" s="50" t="s">
+      <c r="F10" s="49" t="s">
         <v>310</v>
       </c>
-      <c r="G10" s="50" t="s">
+      <c r="G10" s="49" t="s">
         <v>1585</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="48">
+      <c r="A11" s="47">
         <v>42110</v>
       </c>
-      <c r="B11" s="49">
+      <c r="B11" s="48">
         <v>270</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="49" t="s">
         <v>1586</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="49" t="s">
         <v>1587</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="49" t="s">
         <v>1588</v>
       </c>
-      <c r="F11" s="50" t="s">
+      <c r="F11" s="49" t="s">
         <v>1589</v>
       </c>
-      <c r="G11" s="50" t="s">
+      <c r="G11" s="49" t="s">
         <v>1590</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="48">
+      <c r="A12" s="47">
         <v>42111</v>
       </c>
-      <c r="B12" s="49">
+      <c r="B12" s="48">
         <v>271</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="49" t="s">
         <v>1591</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="49" t="s">
         <v>1592</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="49" t="s">
         <v>360</v>
       </c>
-      <c r="F12" s="50" t="s">
+      <c r="F12" s="49" t="s">
         <v>787</v>
       </c>
-      <c r="G12" s="50" t="s">
+      <c r="G12" s="49" t="s">
         <v>1593</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="48">
+      <c r="A13" s="47">
         <v>42112</v>
       </c>
-      <c r="B13" s="49">
+      <c r="B13" s="48">
         <v>272</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="49" t="s">
         <v>1594</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="49" t="s">
         <v>1595</v>
       </c>
-      <c r="E13" s="50" t="s">
+      <c r="E13" s="49" t="s">
         <v>1596</v>
       </c>
-      <c r="F13" s="50" t="s">
+      <c r="F13" s="49" t="s">
         <v>1518</v>
       </c>
-      <c r="G13" s="50" t="s">
+      <c r="G13" s="49" t="s">
         <v>1597</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="51">
+      <c r="A14" s="50">
         <v>42114</v>
       </c>
-      <c r="B14" s="52">
+      <c r="B14" s="51">
         <v>273</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="52" t="s">
         <v>1598</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="52" t="s">
         <v>1599</v>
       </c>
-      <c r="E14" s="53" t="s">
+      <c r="E14" s="52" t="s">
         <v>1600</v>
       </c>
-      <c r="F14" s="53" t="s">
+      <c r="F14" s="52" t="s">
         <v>787</v>
       </c>
-      <c r="G14" s="53" t="s">
+      <c r="G14" s="52" t="s">
         <v>1601</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="51">
+      <c r="A15" s="50">
         <v>42115</v>
       </c>
-      <c r="B15" s="52">
+      <c r="B15" s="51">
         <v>274</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="52" t="s">
         <v>1602</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="52" t="s">
         <v>1603</v>
       </c>
-      <c r="E15" s="53" t="s">
+      <c r="E15" s="52" t="s">
         <v>1604</v>
       </c>
-      <c r="F15" s="53" t="s">
+      <c r="F15" s="52" t="s">
         <v>1605</v>
       </c>
-      <c r="G15" s="53" t="s">
+      <c r="G15" s="52" t="s">
         <v>1606</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="51">
+      <c r="A16" s="50">
         <v>42116</v>
       </c>
-      <c r="B16" s="52">
+      <c r="B16" s="51">
         <v>275</v>
       </c>
-      <c r="C16" s="53" t="s">
+      <c r="C16" s="52" t="s">
         <v>1607</v>
       </c>
-      <c r="D16" s="53" t="s">
+      <c r="D16" s="52" t="s">
         <v>1608</v>
       </c>
-      <c r="E16" s="53" t="s">
+      <c r="E16" s="52" t="s">
         <v>1609</v>
       </c>
-      <c r="F16" s="53" t="s">
+      <c r="F16" s="52" t="s">
         <v>1610</v>
       </c>
-      <c r="G16" s="53" t="s">
+      <c r="G16" s="52" t="s">
         <v>1611</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="51">
+      <c r="A17" s="50">
         <v>42117</v>
       </c>
-      <c r="B17" s="52">
+      <c r="B17" s="51">
         <v>276</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="52" t="s">
         <v>1612</v>
       </c>
-      <c r="D17" s="53" t="s">
+      <c r="D17" s="52" t="s">
         <v>1613</v>
       </c>
-      <c r="E17" s="53" t="s">
+      <c r="E17" s="52" t="s">
         <v>1614</v>
       </c>
-      <c r="F17" s="53" t="s">
+      <c r="F17" s="52" t="s">
         <v>1615</v>
       </c>
-      <c r="G17" s="53" t="s">
+      <c r="G17" s="52" t="s">
         <v>1616</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="51">
+      <c r="A18" s="50">
         <v>42118</v>
       </c>
-      <c r="B18" s="52">
+      <c r="B18" s="51">
         <v>277</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="52" t="s">
         <v>1617</v>
       </c>
-      <c r="D18" s="53" t="s">
+      <c r="D18" s="52" t="s">
         <v>1618</v>
       </c>
-      <c r="E18" s="53" t="s">
+      <c r="E18" s="52" t="s">
         <v>1619</v>
       </c>
-      <c r="F18" s="53" t="s">
+      <c r="F18" s="52" t="s">
         <v>1620</v>
       </c>
-      <c r="G18" s="53" t="s">
+      <c r="G18" s="52" t="s">
         <v>1621</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="51">
+      <c r="A19" s="50">
         <v>42119</v>
       </c>
-      <c r="B19" s="52">
+      <c r="B19" s="51">
         <v>278</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="52" t="s">
         <v>1622</v>
       </c>
-      <c r="D19" s="53" t="s">
+      <c r="D19" s="52" t="s">
         <v>1623</v>
       </c>
-      <c r="E19" s="53" t="s">
+      <c r="E19" s="52" t="s">
         <v>1624</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="52" t="s">
         <v>1431</v>
       </c>
-      <c r="G19" s="53" t="s">
+      <c r="G19" s="52" t="s">
         <v>1625</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="81">
+      <c r="A20" s="86">
         <v>42121</v>
       </c>
-      <c r="B20" s="83">
+      <c r="B20" s="88">
         <v>279</v>
       </c>
-      <c r="C20" s="85" t="s">
+      <c r="C20" s="84" t="s">
         <v>1626</v>
       </c>
-      <c r="D20" s="85" t="s">
+      <c r="D20" s="84" t="s">
         <v>1627</v>
       </c>
-      <c r="E20" s="85" t="s">
+      <c r="E20" s="84" t="s">
         <v>1628</v>
       </c>
-      <c r="F20" s="85" t="s">
+      <c r="F20" s="84" t="s">
         <v>573</v>
       </c>
-      <c r="G20" s="54" t="s">
+      <c r="G20" s="53" t="s">
         <v>1629</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="82"/>
-      <c r="B21" s="84"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="55" t="s">
+      <c r="A21" s="87"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="54" t="s">
         <v>1630</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="48">
+      <c r="A22" s="47">
         <v>42122</v>
       </c>
-      <c r="B22" s="49">
+      <c r="B22" s="48">
         <v>280</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="49" t="s">
         <v>1631</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="49" t="s">
         <v>1632</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="E22" s="49" t="s">
         <v>254</v>
       </c>
-      <c r="F22" s="50" t="s">
+      <c r="F22" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="50" t="s">
+      <c r="G22" s="49" t="s">
         <v>1633</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="48">
+      <c r="A23" s="47">
         <v>42123</v>
       </c>
-      <c r="B23" s="49">
+      <c r="B23" s="48">
         <v>281</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="49" t="s">
         <v>1634</v>
       </c>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="49" t="s">
         <v>1635</v>
       </c>
-      <c r="E23" s="50" t="s">
+      <c r="E23" s="49" t="s">
         <v>1636</v>
       </c>
-      <c r="F23" s="50" t="s">
+      <c r="F23" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="50" t="s">
+      <c r="G23" s="49" t="s">
         <v>1637</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="48">
+      <c r="A24" s="47">
         <v>42124</v>
       </c>
-      <c r="B24" s="49">
+      <c r="B24" s="48">
         <v>282</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="49" t="s">
         <v>1638</v>
       </c>
-      <c r="D24" s="50" t="s">
+      <c r="D24" s="49" t="s">
         <v>1639</v>
       </c>
-      <c r="E24" s="50" t="s">
+      <c r="E24" s="49" t="s">
         <v>1640</v>
       </c>
-      <c r="F24" s="50" t="s">
+      <c r="F24" s="49" t="s">
         <v>709</v>
       </c>
-      <c r="G24" s="50" t="s">
+      <c r="G24" s="49" t="s">
         <v>1641</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="48">
+      <c r="A25" s="47">
         <v>42125</v>
       </c>
-      <c r="B25" s="49">
+      <c r="B25" s="48">
         <v>283</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="49" t="s">
         <v>1642</v>
       </c>
-      <c r="D25" s="50" t="s">
+      <c r="D25" s="49" t="s">
         <v>1643</v>
       </c>
-      <c r="E25" s="50" t="s">
+      <c r="E25" s="49" t="s">
         <v>1644</v>
       </c>
-      <c r="F25" s="50" t="s">
+      <c r="F25" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="G25" s="50" t="s">
+      <c r="G25" s="49" t="s">
         <v>1645</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="48">
+      <c r="A26" s="47">
         <v>42126</v>
       </c>
-      <c r="B26" s="49">
+      <c r="B26" s="48">
         <v>284</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="49" t="s">
         <v>1646</v>
       </c>
-      <c r="D26" s="50" t="s">
+      <c r="D26" s="49" t="s">
         <v>1647</v>
       </c>
-      <c r="E26" s="50" t="s">
+      <c r="E26" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="F26" s="50" t="s">
+      <c r="F26" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="G26" s="50" t="s">
+      <c r="G26" s="49" t="s">
         <v>1648</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="51">
+      <c r="A27" s="50">
         <v>42128</v>
       </c>
-      <c r="B27" s="52">
+      <c r="B27" s="51">
         <v>285</v>
       </c>
-      <c r="C27" s="53" t="s">
+      <c r="C27" s="52" t="s">
         <v>1649</v>
       </c>
-      <c r="D27" s="53" t="s">
+      <c r="D27" s="52" t="s">
         <v>1650</v>
       </c>
-      <c r="E27" s="53" t="s">
+      <c r="E27" s="52" t="s">
         <v>1651</v>
       </c>
-      <c r="F27" s="53" t="s">
+      <c r="F27" s="52" t="s">
         <v>1652</v>
       </c>
-      <c r="G27" s="53" t="s">
+      <c r="G27" s="52" t="s">
         <v>1653</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="51">
+      <c r="A28" s="50">
         <v>42129</v>
       </c>
-      <c r="B28" s="52">
+      <c r="B28" s="51">
         <v>286</v>
       </c>
-      <c r="C28" s="53" t="s">
+      <c r="C28" s="52" t="s">
         <v>1654</v>
       </c>
-      <c r="D28" s="53" t="s">
+      <c r="D28" s="52" t="s">
         <v>1655</v>
       </c>
-      <c r="E28" s="53" t="s">
+      <c r="E28" s="52" t="s">
         <v>1656</v>
       </c>
-      <c r="F28" s="53" t="s">
+      <c r="F28" s="52" t="s">
         <v>1657</v>
       </c>
-      <c r="G28" s="53" t="s">
+      <c r="G28" s="52" t="s">
         <v>1658</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="51">
+      <c r="A29" s="50">
         <v>42130</v>
       </c>
-      <c r="B29" s="52">
+      <c r="B29" s="51">
         <v>287</v>
       </c>
-      <c r="C29" s="53" t="s">
+      <c r="C29" s="52" t="s">
         <v>1659</v>
       </c>
-      <c r="D29" s="53" t="s">
+      <c r="D29" s="52" t="s">
         <v>1660</v>
       </c>
-      <c r="E29" s="53" t="s">
+      <c r="E29" s="52" t="s">
         <v>278</v>
       </c>
-      <c r="F29" s="53" t="s">
+      <c r="F29" s="52" t="s">
         <v>1661</v>
       </c>
-      <c r="G29" s="53" t="s">
+      <c r="G29" s="52" t="s">
         <v>1662</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="51">
+      <c r="A30" s="50">
         <v>42131</v>
       </c>
-      <c r="B30" s="52">
+      <c r="B30" s="51">
         <v>288</v>
       </c>
-      <c r="C30" s="53" t="s">
+      <c r="C30" s="52" t="s">
         <v>1663</v>
       </c>
-      <c r="D30" s="53" t="s">
+      <c r="D30" s="52" t="s">
         <v>1664</v>
       </c>
-      <c r="E30" s="53" t="s">
+      <c r="E30" s="52" t="s">
         <v>1665</v>
       </c>
-      <c r="F30" s="53" t="s">
+      <c r="F30" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="G30" s="53" t="s">
+      <c r="G30" s="52" t="s">
         <v>1666</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="51">
+      <c r="A31" s="50">
         <v>42132</v>
       </c>
-      <c r="B31" s="52">
+      <c r="B31" s="51">
         <v>289</v>
       </c>
-      <c r="C31" s="53" t="s">
+      <c r="C31" s="52" t="s">
         <v>1667</v>
       </c>
-      <c r="D31" s="53" t="s">
+      <c r="D31" s="52" t="s">
         <v>1668</v>
       </c>
-      <c r="E31" s="53" t="s">
+      <c r="E31" s="52" t="s">
         <v>1669</v>
       </c>
-      <c r="F31" s="53" t="s">
+      <c r="F31" s="52" t="s">
         <v>492</v>
       </c>
-      <c r="G31" s="53" t="s">
+      <c r="G31" s="52" t="s">
         <v>1670</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="51">
+      <c r="A32" s="50">
         <v>42133</v>
       </c>
-      <c r="B32" s="52">
+      <c r="B32" s="51">
         <v>290</v>
       </c>
-      <c r="C32" s="53" t="s">
+      <c r="C32" s="52" t="s">
         <v>1671</v>
       </c>
-      <c r="D32" s="53" t="s">
+      <c r="D32" s="52" t="s">
         <v>1672</v>
       </c>
-      <c r="E32" s="53" t="s">
+      <c r="E32" s="52" t="s">
         <v>1673</v>
       </c>
-      <c r="F32" s="53" t="s">
+      <c r="F32" s="52" t="s">
         <v>1577</v>
       </c>
-      <c r="G32" s="53" t="s">
+      <c r="G32" s="52" t="s">
         <v>1674</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="48">
+      <c r="A33" s="47">
         <v>42135</v>
       </c>
-      <c r="B33" s="49">
+      <c r="B33" s="48">
         <v>291</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="49" t="s">
         <v>1675</v>
       </c>
-      <c r="D33" s="50" t="s">
+      <c r="D33" s="49" t="s">
         <v>1676</v>
       </c>
-      <c r="E33" s="50" t="s">
+      <c r="E33" s="49" t="s">
         <v>270</v>
       </c>
-      <c r="F33" s="50" t="s">
+      <c r="F33" s="49" t="s">
         <v>1677</v>
       </c>
-      <c r="G33" s="50" t="s">
+      <c r="G33" s="49" t="s">
         <v>1678</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="48">
+      <c r="A34" s="47">
         <v>42136</v>
       </c>
-      <c r="B34" s="49">
+      <c r="B34" s="48">
         <v>292</v>
       </c>
-      <c r="C34" s="50" t="s">
+      <c r="C34" s="49" t="s">
         <v>1679</v>
       </c>
-      <c r="D34" s="50" t="s">
+      <c r="D34" s="49" t="s">
         <v>1680</v>
       </c>
-      <c r="E34" s="50" t="s">
+      <c r="E34" s="49" t="s">
         <v>1418</v>
       </c>
-      <c r="F34" s="50" t="s">
+      <c r="F34" s="49" t="s">
         <v>1681</v>
       </c>
-      <c r="G34" s="50" t="s">
+      <c r="G34" s="49" t="s">
         <v>1682</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="48">
+      <c r="A35" s="47">
         <v>42137</v>
       </c>
-      <c r="B35" s="49">
+      <c r="B35" s="48">
         <v>293</v>
       </c>
-      <c r="C35" s="50" t="s">
+      <c r="C35" s="49" t="s">
         <v>1683</v>
       </c>
-      <c r="D35" s="50" t="s">
+      <c r="D35" s="49" t="s">
         <v>1684</v>
       </c>
-      <c r="E35" s="50" t="s">
+      <c r="E35" s="49" t="s">
         <v>1122</v>
       </c>
-      <c r="F35" s="50" t="s">
+      <c r="F35" s="49" t="s">
         <v>1685</v>
       </c>
-      <c r="G35" s="50" t="s">
+      <c r="G35" s="49" t="s">
         <v>1686</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="48">
+      <c r="A36" s="47">
         <v>42138</v>
       </c>
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="48" t="s">
         <v>1687</v>
       </c>
-      <c r="C36" s="50" t="s">
+      <c r="C36" s="49" t="s">
         <v>1688</v>
       </c>
-      <c r="D36" s="50" t="s">
+      <c r="D36" s="49" t="s">
         <v>1689</v>
       </c>
-      <c r="E36" s="50" t="s">
+      <c r="E36" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="F36" s="50" t="s">
+      <c r="F36" s="49" t="s">
         <v>1690</v>
       </c>
-      <c r="G36" s="50" t="s">
+      <c r="G36" s="49" t="s">
         <v>1691</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="48">
+      <c r="A37" s="47">
         <v>42139</v>
       </c>
-      <c r="B37" s="49">
+      <c r="B37" s="48">
         <v>295</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="49" t="s">
         <v>1692</v>
       </c>
-      <c r="D37" s="50" t="s">
+      <c r="D37" s="49" t="s">
         <v>1693</v>
       </c>
-      <c r="E37" s="50" t="s">
+      <c r="E37" s="49" t="s">
         <v>1694</v>
       </c>
-      <c r="F37" s="50" t="s">
+      <c r="F37" s="49" t="s">
         <v>1657</v>
       </c>
-      <c r="G37" s="50" t="s">
+      <c r="G37" s="49" t="s">
         <v>1695</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="48">
+      <c r="A38" s="47">
         <v>42140</v>
       </c>
-      <c r="B38" s="49">
+      <c r="B38" s="48">
         <v>296</v>
       </c>
-      <c r="C38" s="50" t="s">
+      <c r="C38" s="49" t="s">
         <v>1696</v>
       </c>
-      <c r="D38" s="50" t="s">
+      <c r="D38" s="49" t="s">
         <v>1697</v>
       </c>
-      <c r="E38" s="50" t="s">
+      <c r="E38" s="49" t="s">
         <v>1698</v>
       </c>
-      <c r="F38" s="50" t="s">
+      <c r="F38" s="49" t="s">
         <v>1699</v>
       </c>
-      <c r="G38" s="50" t="s">
+      <c r="G38" s="49" t="s">
         <v>1700</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A39" s="51">
+      <c r="A39" s="50">
         <v>42142</v>
       </c>
-      <c r="B39" s="52">
+      <c r="B39" s="51">
         <v>297</v>
       </c>
-      <c r="C39" s="53" t="s">
+      <c r="C39" s="52" t="s">
         <v>1701</v>
       </c>
-      <c r="D39" s="53" t="s">
+      <c r="D39" s="52" t="s">
         <v>1702</v>
       </c>
-      <c r="E39" s="53" t="s">
+      <c r="E39" s="52" t="s">
         <v>1703</v>
       </c>
-      <c r="F39" s="53" t="s">
+      <c r="F39" s="52" t="s">
         <v>1577</v>
       </c>
-      <c r="G39" s="53" t="s">
+      <c r="G39" s="52" t="s">
         <v>1704</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="51">
+      <c r="A40" s="50">
         <v>42143</v>
       </c>
-      <c r="B40" s="52">
+      <c r="B40" s="51">
         <v>298</v>
       </c>
-      <c r="C40" s="53" t="s">
+      <c r="C40" s="52" t="s">
         <v>1705</v>
       </c>
-      <c r="D40" s="53" t="s">
+      <c r="D40" s="52" t="s">
         <v>1706</v>
       </c>
-      <c r="E40" s="53" t="s">
+      <c r="E40" s="52" t="s">
         <v>1707</v>
       </c>
-      <c r="F40" s="53" t="s">
+      <c r="F40" s="52" t="s">
         <v>1685</v>
       </c>
-      <c r="G40" s="53" t="s">
+      <c r="G40" s="52" t="s">
         <v>1708</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="51">
+      <c r="A41" s="50">
         <v>42144</v>
       </c>
-      <c r="B41" s="52">
+      <c r="B41" s="51">
         <v>299</v>
       </c>
-      <c r="C41" s="53" t="s">
+      <c r="C41" s="52" t="s">
         <v>1709</v>
       </c>
-      <c r="D41" s="53" t="s">
+      <c r="D41" s="52" t="s">
         <v>1710</v>
       </c>
-      <c r="E41" s="53" t="s">
+      <c r="E41" s="52" t="s">
         <v>1711</v>
       </c>
-      <c r="F41" s="53" t="s">
+      <c r="F41" s="52" t="s">
         <v>1712</v>
       </c>
-      <c r="G41" s="53" t="s">
+      <c r="G41" s="52" t="s">
         <v>1713</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="51">
+      <c r="A42" s="50">
         <v>42145</v>
       </c>
-      <c r="B42" s="52">
+      <c r="B42" s="51">
         <v>300</v>
       </c>
-      <c r="C42" s="53" t="s">
+      <c r="C42" s="52" t="s">
         <v>1714</v>
       </c>
-      <c r="D42" s="53" t="s">
+      <c r="D42" s="52" t="s">
         <v>1715</v>
       </c>
-      <c r="E42" s="53" t="s">
+      <c r="E42" s="52" t="s">
         <v>1553</v>
       </c>
-      <c r="F42" s="53" t="s">
+      <c r="F42" s="52" t="s">
         <v>1716</v>
       </c>
-      <c r="G42" s="53" t="s">
+      <c r="G42" s="52" t="s">
         <v>1717</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="51">
+      <c r="A43" s="50">
         <v>42146</v>
       </c>
-      <c r="B43" s="52">
+      <c r="B43" s="51">
         <v>301</v>
       </c>
-      <c r="C43" s="53" t="s">
+      <c r="C43" s="52" t="s">
         <v>1718</v>
       </c>
-      <c r="D43" s="53" t="s">
+      <c r="D43" s="52" t="s">
         <v>1719</v>
       </c>
-      <c r="E43" s="53" t="s">
+      <c r="E43" s="52" t="s">
         <v>1720</v>
       </c>
-      <c r="F43" s="53" t="s">
+      <c r="F43" s="52" t="s">
         <v>1652</v>
       </c>
-      <c r="G43" s="53" t="s">
+      <c r="G43" s="52" t="s">
         <v>1721</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="51">
+      <c r="A44" s="50">
         <v>42147</v>
       </c>
-      <c r="B44" s="52">
+      <c r="B44" s="51">
         <v>302</v>
       </c>
-      <c r="C44" s="53" t="s">
+      <c r="C44" s="52" t="s">
         <v>1722</v>
       </c>
-      <c r="D44" s="53" t="s">
+      <c r="D44" s="52" t="s">
         <v>1723</v>
       </c>
-      <c r="E44" s="53" t="s">
+      <c r="E44" s="52" t="s">
         <v>1724</v>
       </c>
-      <c r="F44" s="53" t="s">
+      <c r="F44" s="52" t="s">
         <v>1725</v>
       </c>
-      <c r="G44" s="53" t="s">
+      <c r="G44" s="52" t="s">
         <v>1726</v>
       </c>
     </row>
